--- a/day2/C3/excel_demo.xlsx
+++ b/day2/C3/excel_demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syafribahar/Documents/courses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syafribahar/Documents/gods_bootcamp03_instructors/day2/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7831E79-D974-B741-A715-43CBCA3D6559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF127E5-9B67-0949-BB7B-9C5E58B78053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{E8D9986B-7092-3442-B60C-5657B6B302CD}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -185,7 +185,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -585,307 +585,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.883196787780046</c:v>
+                  <c:v>1.4004770715777379</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7187453183612644</c:v>
+                  <c:v>2.0336182704534957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99681099150861396</c:v>
+                  <c:v>1.379617693489062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2667703158847399</c:v>
+                  <c:v>1.9142717851697117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0653618066198678</c:v>
+                  <c:v>1.4733731458310253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3897526319305535</c:v>
+                  <c:v>0.85254221699569699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0790356382932798</c:v>
+                  <c:v>1.7458752718300063</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.124336580066764</c:v>
+                  <c:v>1.8573679605736324</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4904964672169028</c:v>
+                  <c:v>1.4148548321562737</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5275228803587302</c:v>
+                  <c:v>1.7978245713567205</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8861953736411396</c:v>
+                  <c:v>3.0714216313389655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1386652028781583</c:v>
+                  <c:v>1.9333610460804698</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6969847619310343</c:v>
+                  <c:v>1.8330196577717821</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1676875529507864</c:v>
+                  <c:v>1.2847561458355385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7694806049844987</c:v>
+                  <c:v>1.7697056907276032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1447291632861356</c:v>
+                  <c:v>2.2831575616096087</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7309890978206859</c:v>
+                  <c:v>2.1951560776471353</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.197010269150105</c:v>
+                  <c:v>2.8093823939983302</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5522945834124551</c:v>
+                  <c:v>2.5963307530597657</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2036401296677504</c:v>
+                  <c:v>3.1530946839495635</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7897950861643781</c:v>
+                  <c:v>2.6528760361600776</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8168971889677965</c:v>
+                  <c:v>2.1975830501924021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.4103681383632258</c:v>
+                  <c:v>1.700717526689504</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.305476346539086</c:v>
+                  <c:v>2.359333391854709</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.54512432137436728</c:v>
+                  <c:v>1.2964453550259847</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5234408017496568</c:v>
+                  <c:v>1.209711169803481</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7663645316310479</c:v>
+                  <c:v>1.6312045912073723</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.6252663373619765</c:v>
+                  <c:v>2.2981581193932676</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4084949888145986</c:v>
+                  <c:v>1.6855131915015302</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9028286128362382</c:v>
+                  <c:v>2.2394720874267104</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4710594840867728</c:v>
+                  <c:v>0.71038747533669566</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.7501623568111651</c:v>
+                  <c:v>2.9146629754045792</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1762986378394211</c:v>
+                  <c:v>1.1309188477513183</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.7799256760892881</c:v>
+                  <c:v>2.3370686958884779</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6389227308483929</c:v>
+                  <c:v>1.7404500568578407</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3918242546040083</c:v>
+                  <c:v>1.674128781037961</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.88986601744666238</c:v>
+                  <c:v>0.8228882563197456</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.5273524159663934</c:v>
+                  <c:v>3.1023502890887507</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1093084583767543</c:v>
+                  <c:v>1.1811757535330845</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5760492101268735</c:v>
+                  <c:v>1.3492025905797616</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7046205900591729</c:v>
+                  <c:v>2.7264453371085859</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.2215111756867465</c:v>
+                  <c:v>1.3928245518877729</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9235905960033421</c:v>
+                  <c:v>3.2575568864417885</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.5995139449704174</c:v>
+                  <c:v>1.4979160238618432</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5007168396288888</c:v>
+                  <c:v>1.8216249993318463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.3856798931080161</c:v>
+                  <c:v>3.3731797218350343</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.2126872871498207</c:v>
+                  <c:v>1.17381618739152</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.3847365718316347</c:v>
+                  <c:v>2.2287231060616874</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.9671320145957829</c:v>
+                  <c:v>1.975989167075606</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0182287307828135</c:v>
+                  <c:v>2.9089438198659074</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.7064055021265672</c:v>
+                  <c:v>2.7516103811452775</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7171102188660863</c:v>
+                  <c:v>1.9672479391857371</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.6153408581472641</c:v>
+                  <c:v>2.3887703037903836</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.027891415655144</c:v>
+                  <c:v>2.1149221137813252</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.92751966510138795</c:v>
+                  <c:v>1.2793914856477053</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.578734441717011</c:v>
+                  <c:v>1.4753879648283021</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.1648011618310044</c:v>
+                  <c:v>2.2291514716753413</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6760302295841825</c:v>
+                  <c:v>1.4887251341899308</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4770999903688775</c:v>
+                  <c:v>2.7563502148388754</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8773957992310966</c:v>
+                  <c:v>2.2887531876147142</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.8558263808703921</c:v>
+                  <c:v>2.0132980511482983</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.3242291094016938</c:v>
+                  <c:v>2.9748623817434736</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.8708538586976364</c:v>
+                  <c:v>2.2586570354220332</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.6703917947470446</c:v>
+                  <c:v>2.4178083220778221</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.0967079225757219</c:v>
+                  <c:v>0.99426722135127876</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.8208502001524307</c:v>
+                  <c:v>3.0223336523907784</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.78270589679051805</c:v>
+                  <c:v>0.91817399156036639</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0466216050401227</c:v>
+                  <c:v>1.5579361063075159</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5369097195374444</c:v>
+                  <c:v>2.5774395275798039</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7185296998465605</c:v>
+                  <c:v>1.5868906503056226</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.2878258200326194</c:v>
+                  <c:v>3.0098205837981467</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.5279209157267901</c:v>
+                  <c:v>1.9323267729229716</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.4790855415512842</c:v>
+                  <c:v>0.78548816263778676</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1425648510313891</c:v>
+                  <c:v>1.9364247999189663</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.9935489039559369</c:v>
+                  <c:v>1.7845275489471808</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.79565892697432095</c:v>
+                  <c:v>1.2292509305092356</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.960839203089221</c:v>
+                  <c:v>2.2156171510316578</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.4726393275566112</c:v>
+                  <c:v>2.6277491886100512</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.350984593205955</c:v>
+                  <c:v>1.7390240397019165</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.78813260983452194</c:v>
+                  <c:v>1.2749522009181147</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.5830627193929896</c:v>
+                  <c:v>1.9714767074245687</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1198838816243954</c:v>
+                  <c:v>1.4878904624125808</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.1901007460606126</c:v>
+                  <c:v>2.5382322063238609</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.3312660121663011</c:v>
+                  <c:v>2.4485851925293947</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.750721717839012</c:v>
+                  <c:v>0.98002518204360289</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8722660022629718</c:v>
+                  <c:v>1.5919945431773663</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.5364576822219509</c:v>
+                  <c:v>1.1097096612682154</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3925560762631011</c:v>
+                  <c:v>1.3527612837761769</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.4372909695700011</c:v>
+                  <c:v>0.89994584158051771</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.7210588938727871</c:v>
+                  <c:v>1.195589871554203</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3967395501799351</c:v>
+                  <c:v>2.7247555825518095</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2882381583954636</c:v>
+                  <c:v>3.3218993466617333</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.9330345280271644</c:v>
+                  <c:v>2.521767643570723</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.0456737455232208</c:v>
+                  <c:v>2.3741398457741898</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.1468383422624968</c:v>
+                  <c:v>2.2208922914881963</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.712998768720948</c:v>
+                  <c:v>1.3393404507427444</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.93087116549728799</c:v>
+                  <c:v>1.3607825536926208</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3998413884375172</c:v>
+                  <c:v>1.3386551978926224</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.6021312214411596</c:v>
+                  <c:v>0.66098871815761362</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0467278825434185</c:v>
+                  <c:v>2.0843316607618232</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.6382404192299385</c:v>
+                  <c:v>1.2044447586154736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30563,7 +30563,7 @@
   <dimension ref="B1:F107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30610,8 +30610,8 @@
         <v>0.43337667814122394</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">$C$2*B7+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.883196787780046</v>
+        <f t="shared" ref="C7:C38" ca="1" si="0">$C$2*B7+$C$3+$C$4*(2*RAND()-1)</f>
+        <v>1.4004770715777379</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -30619,8 +30619,8 @@
         <v>0.37832804411238374</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">$C$2*B8+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7187453183612644</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0336182704534957</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -30628,8 +30628,8 @@
         <v>0.17982645276395948</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">$C$2*B9+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.99681099150861396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.379617693489062</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -30637,8 +30637,8 @@
         <v>0.43307407145699761</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">$C$2*B10+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.2667703158847399</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9142717851697117</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -30648,8 +30648,8 @@
         <v>4.3972674874063089E-2</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">$C$2*B11+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.0653618066198678</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4733731458310253</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -30657,8 +30657,8 @@
         <v>0.14952266584944418</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">$C$2*B12+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.3897526319305535</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85254221699569699</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -30666,8 +30666,8 @@
         <v>0.22539904886527229</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">$C$2*B13+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.0790356382932798</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7458752718300063</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -30675,8 +30675,8 @@
         <v>0.41801570074780436</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">$C$2*B14+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.124336580066764</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8573679605736324</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -30684,8 +30684,8 @@
         <v>0.29706041712675524</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">$C$2*B15+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4904964672169028</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4148548321562737</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -30693,8 +30693,8 @@
         <v>0.53976225502301312</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">$C$2*B16+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.5275228803587302</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7978245713567205</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -30702,8 +30702,8 @@
         <v>0.88804280013151327</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">$C$2*B17+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.8861953736411396</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0714216313389655</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -30711,8 +30711,8 @@
         <v>0.35611384510302746</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">$C$2*B18+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1386652028781583</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9333610460804698</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -30720,8 +30720,8 @@
         <v>0.61896045024045032</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">$C$2*B19+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.6969847619310343</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8330196577717821</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -30729,8 +30729,8 @@
         <v>0.38613487375135758</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">$C$2*B20+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1676875529507864</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2847561458355385</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -30738,8 +30738,8 @@
         <v>0.29739565240274457</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">$C$2*B21+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7694806049844987</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7697056907276032</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -30747,8 +30747,8 @@
         <v>0.39670704688488689</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">$C$2*B22+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1447291632861356</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2831575616096087</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -30756,8 +30756,8 @@
         <v>0.60210544937375821</v>
       </c>
       <c r="C23" s="3">
-        <f ca="1">$C$2*B23+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7309890978206859</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1951560776471353</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -30765,8 +30765,8 @@
         <v>0.86138099624640396</v>
       </c>
       <c r="C24" s="3">
-        <f ca="1">$C$2*B24+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.197010269150105</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8093823939983302</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -30774,8 +30774,8 @@
         <v>0.79953005391044307</v>
       </c>
       <c r="C25" s="3">
-        <f ca="1">$C$2*B25+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.5522945834124551</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5963307530597657</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -30783,8 +30783,8 @@
         <v>0.98164918564578796</v>
       </c>
       <c r="C26" s="3">
-        <f ca="1">$C$2*B26+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.2036401296677504</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1530946839495635</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -30792,8 +30792,8 @@
         <v>0.9182714340516972</v>
       </c>
       <c r="C27" s="3">
-        <f ca="1">$C$2*B27+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.7897950861643781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6528760361600776</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -30801,8 +30801,8 @@
         <v>0.36357642854465577</v>
       </c>
       <c r="C28" s="3">
-        <f ca="1">$C$2*B28+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.8168971889677965</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.1975830501924021</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -30810,8 +30810,8 @@
         <v>0.4439173371007582</v>
       </c>
       <c r="C29" s="3">
-        <f ca="1">$C$2*B29+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4103681383632258</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.700717526689504</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -30819,8 +30819,8 @@
         <v>0.67549239068181866</v>
       </c>
       <c r="C30" s="3">
-        <f ca="1">$C$2*B30+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.305476346539086</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.359333391854709</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -30828,8 +30828,8 @@
         <v>5.889515725528538E-3</v>
       </c>
       <c r="C31" s="3">
-        <f ca="1">$C$2*B31+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.54512432137436728</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2964453550259847</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -30837,8 +30837,8 @@
         <v>0.33797264563201201</v>
       </c>
       <c r="C32" s="3">
-        <f ca="1">$C$2*B32+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.5234408017496568</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.209711169803481</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -30846,8 +30846,8 @@
         <v>0.27045565054156762</v>
       </c>
       <c r="C33" s="3">
-        <f ca="1">$C$2*B33+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7663645316310479</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6312045912073723</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -30855,8 +30855,8 @@
         <v>0.7676270130751397</v>
       </c>
       <c r="C34" s="3">
-        <f ca="1">$C$2*B34+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.6252663373619765</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2981581193932676</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -30864,8 +30864,8 @@
         <v>0.3476800757078653</v>
       </c>
       <c r="C35" s="3">
-        <f ca="1">$C$2*B35+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4084949888145986</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6855131915015302</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -30873,8 +30873,8 @@
         <v>0.60384995013157117</v>
       </c>
       <c r="C36" s="3">
-        <f ca="1">$C$2*B36+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.9028286128362382</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2394720874267104</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -30882,8 +30882,8 @@
         <v>6.0707231954573615E-2</v>
       </c>
       <c r="C37" s="3">
-        <f ca="1">$C$2*B37+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4710594840867728</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71038747533669566</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -30891,8 +30891,8 @@
         <v>0.73820065321449446</v>
       </c>
       <c r="C38" s="3">
-        <f ca="1">$C$2*B38+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.7501623568111651</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9146629754045792</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -30900,8 +30900,8 @@
         <v>0.27926179556149888</v>
       </c>
       <c r="C39" s="3">
-        <f ca="1">$C$2*B39+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.1762986378394211</v>
+        <f t="shared" ref="C39:C70" ca="1" si="1">$C$2*B39+$C$3+$C$4*(2*RAND()-1)</f>
+        <v>1.1309188477513183</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -30909,8 +30909,8 @@
         <v>0.83507971135369508</v>
       </c>
       <c r="C40" s="3">
-        <f ca="1">$C$2*B40+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.7799256760892881</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3370686958884779</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -30918,8 +30918,8 @@
         <v>0.45715085253395893</v>
       </c>
       <c r="C41" s="3">
-        <f ca="1">$C$2*B41+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.6389227308483929</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7404500568578407</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -30927,8 +30927,8 @@
         <v>0.21295794223172615</v>
       </c>
       <c r="C42" s="3">
-        <f ca="1">$C$2*B42+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.3918242546040083</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.674128781037961</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -30936,8 +30936,8 @@
         <v>7.5886259645967402E-2</v>
       </c>
       <c r="C43" s="3">
-        <f ca="1">$C$2*B43+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.88986601744666238</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8228882563197456</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -30945,8 +30945,8 @@
         <v>0.99861493176313521</v>
       </c>
       <c r="C44" s="3">
-        <f ca="1">$C$2*B44+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.5273524159663934</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.1023502890887507</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -30954,8 +30954,8 @@
         <v>0.32467358842403593</v>
       </c>
       <c r="C45" s="3">
-        <f ca="1">$C$2*B45+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1093084583767543</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1811757535330845</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -30963,8 +30963,8 @@
         <v>0.32979560046756806</v>
       </c>
       <c r="C46" s="3">
-        <f ca="1">$C$2*B46+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.5760492101268735</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3492025905797616</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -30972,8 +30972,8 @@
         <v>0.9169664250468379</v>
       </c>
       <c r="C47" s="3">
-        <f ca="1">$C$2*B47+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.7046205900591729</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7264453371085859</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -30981,8 +30981,8 @@
         <v>0.24763657505839232</v>
       </c>
       <c r="C48" s="3">
-        <f ca="1">$C$2*B48+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.2215111756867465</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3928245518877729</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -30990,8 +30990,8 @@
         <v>0.94952448464128669</v>
       </c>
       <c r="C49" s="3">
-        <f ca="1">$C$2*B49+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.9235905960033421</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2575568864417885</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -30999,8 +30999,8 @@
         <v>0.34300980825378125</v>
       </c>
       <c r="C50" s="3">
-        <f ca="1">$C$2*B50+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.5995139449704174</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4979160238618432</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -31008,8 +31008,8 @@
         <v>0.35198084267743468</v>
       </c>
       <c r="C51" s="3">
-        <f ca="1">$C$2*B51+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.5007168396288888</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8216249993318463</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -31017,8 +31017,8 @@
         <v>0.97790638933639973</v>
       </c>
       <c r="C52" s="3">
-        <f ca="1">$C$2*B52+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.3856798931080161</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3.3731797218350343</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -31026,8 +31026,8 @@
         <v>0.20813857047244899</v>
       </c>
       <c r="C53" s="3">
-        <f ca="1">$C$2*B53+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.2126872871498207</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.17381618739152</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -31035,8 +31035,8 @@
         <v>0.77500953596320876</v>
       </c>
       <c r="C54" s="3">
-        <f ca="1">$C$2*B54+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.3847365718316347</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2287231060616874</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -31044,8 +31044,8 @@
         <v>0.65428687978200706</v>
       </c>
       <c r="C55" s="3">
-        <f ca="1">$C$2*B55+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.9671320145957829</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.975989167075606</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -31053,8 +31053,8 @@
         <v>0.86015169061355679</v>
       </c>
       <c r="C56" s="3">
-        <f ca="1">$C$2*B56+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.0182287307828135</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9089438198659074</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -31062,8 +31062,8 @@
         <v>0.85425565073963383</v>
       </c>
       <c r="C57" s="3">
-        <f ca="1">$C$2*B57+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.7064055021265672</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7516103811452775</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -31071,8 +31071,8 @@
         <v>0.25709046549898695</v>
       </c>
       <c r="C58" s="3">
-        <f ca="1">$C$2*B58+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7171102188660863</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.9672479391857371</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -31080,8 +31080,8 @@
         <v>0.71759959837694332</v>
       </c>
       <c r="C59" s="3">
-        <f ca="1">$C$2*B59+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.6153408581472641</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.3887703037903836</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -31089,8 +31089,8 @@
         <v>0.65591595447403905</v>
       </c>
       <c r="C60" s="3">
-        <f ca="1">$C$2*B60+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.027891415655144</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1149221137813252</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -31098,8 +31098,8 @@
         <v>0.11705429099113041</v>
       </c>
       <c r="C61" s="3">
-        <f ca="1">$C$2*B61+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.92751966510138795</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2793914856477053</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -31107,8 +31107,8 @@
         <v>0.24373958125707074</v>
       </c>
       <c r="C62" s="3">
-        <f ca="1">$C$2*B62+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.578734441717011</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4753879648283021</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -31116,8 +31116,8 @@
         <v>0.48951986618122623</v>
       </c>
       <c r="C63" s="3">
-        <f ca="1">$C$2*B63+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1648011618310044</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2291514716753413</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -31125,8 +31125,8 @@
         <v>0.3274964028508649</v>
       </c>
       <c r="C64" s="3">
-        <f ca="1">$C$2*B64+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.6760302295841825</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4887251341899308</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -31134,8 +31134,8 @@
         <v>0.70725042574492092</v>
       </c>
       <c r="C65" s="3">
-        <f ca="1">$C$2*B65+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.4770999903688775</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7563502148388754</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -31143,8 +31143,8 @@
         <v>0.44516037824975541</v>
       </c>
       <c r="C66" s="3">
-        <f ca="1">$C$2*B66+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.8773957992310966</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2887531876147142</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -31152,8 +31152,8 @@
         <v>0.60763422914233889</v>
       </c>
       <c r="C67" s="3">
-        <f ca="1">$C$2*B67+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.8558263808703921</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0132980511482983</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -31161,8 +31161,8 @@
         <v>0.76784972340479274</v>
       </c>
       <c r="C68" s="3">
-        <f ca="1">$C$2*B68+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.3242291094016938</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9748623817434736</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -31170,8 +31170,8 @@
         <v>0.38676432144883932</v>
       </c>
       <c r="C69" s="3">
-        <f ca="1">$C$2*B69+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.8708538586976364</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2586570354220332</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -31179,8 +31179,8 @@
         <v>0.62380599919491064</v>
       </c>
       <c r="C70" s="3">
-        <f ca="1">$C$2*B70+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.6703917947470446</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4178083220778221</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -31188,8 +31188,8 @@
         <v>0.15622907046892187</v>
       </c>
       <c r="C71" s="3">
-        <f ca="1">$C$2*B71+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.0967079225757219</v>
+        <f t="shared" ref="C71:C102" ca="1" si="2">$C$2*B71+$C$3+$C$4*(2*RAND()-1)</f>
+        <v>0.99426722135127876</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -31197,8 +31197,8 @@
         <v>0.95499023607232381</v>
       </c>
       <c r="C72" s="3">
-        <f ca="1">$C$2*B72+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.8208502001524307</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0223336523907784</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -31206,8 +31206,8 @@
         <v>3.1694349204873462E-2</v>
       </c>
       <c r="C73" s="3">
-        <f ca="1">$C$2*B73+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.78270589679051805</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91817399156036639</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -31215,8 +31215,8 @@
         <v>0.11330721010216305</v>
       </c>
       <c r="C74" s="3">
-        <f ca="1">$C$2*B74+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.0466216050401227</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5579361063075159</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -31224,8 +31224,8 @@
         <v>0.68155260921216032</v>
       </c>
       <c r="C75" s="3">
-        <f ca="1">$C$2*B75+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.5369097195374444</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5774395275798039</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -31233,8 +31233,8 @@
         <v>0.45204303507967836</v>
       </c>
       <c r="C76" s="3">
-        <f ca="1">$C$2*B76+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7185296998465605</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5868906503056226</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -31242,8 +31242,8 @@
         <v>0.95721143705469114</v>
       </c>
       <c r="C77" s="3">
-        <f ca="1">$C$2*B77+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.2878258200326194</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0098205837981467</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -31251,8 +31251,8 @@
         <v>0.47363031449944615</v>
       </c>
       <c r="C78" s="3">
-        <f ca="1">$C$2*B78+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.5279209157267901</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9323267729229716</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -31260,8 +31260,8 @@
         <v>1.6319069596712366E-2</v>
       </c>
       <c r="C79" s="3">
-        <f ca="1">$C$2*B79+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4790855415512842</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.78548816263778676</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -31269,8 +31269,8 @@
         <v>0.41443456915244392</v>
       </c>
       <c r="C80" s="3">
-        <f ca="1">$C$2*B80+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1425648510313891</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9364247999189663</v>
       </c>
     </row>
     <row r="81" spans="2:3">
@@ -31278,8 +31278,8 @@
         <v>0.61263176309718914</v>
       </c>
       <c r="C81" s="3">
-        <f ca="1">$C$2*B81+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.9935489039559369</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7845275489471808</v>
       </c>
     </row>
     <row r="82" spans="2:3">
@@ -31287,8 +31287,8 @@
         <v>6.3044811864682804E-2</v>
       </c>
       <c r="C82" s="3">
-        <f ca="1">$C$2*B82+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.79565892697432095</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2292509305092356</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -31296,8 +31296,8 @@
         <v>0.5326125151801796</v>
       </c>
       <c r="C83" s="3">
-        <f ca="1">$C$2*B83+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.960839203089221</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2156171510316578</v>
       </c>
     </row>
     <row r="84" spans="2:3">
@@ -31305,8 +31305,8 @@
         <v>0.80644940129361553</v>
       </c>
       <c r="C84" s="3">
-        <f ca="1">$C$2*B84+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.4726393275566112</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6277491886100512</v>
       </c>
     </row>
     <row r="85" spans="2:3">
@@ -31314,8 +31314,8 @@
         <v>0.20748865824737617</v>
       </c>
       <c r="C85" s="3">
-        <f ca="1">$C$2*B85+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.350984593205955</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.7390240397019165</v>
       </c>
     </row>
     <row r="86" spans="2:3">
@@ -31323,8 +31323,8 @@
         <v>0.1434209264071159</v>
       </c>
       <c r="C86" s="3">
-        <f ca="1">$C$2*B86+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.78813260983452194</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2749522009181147</v>
       </c>
     </row>
     <row r="87" spans="2:3">
@@ -31332,8 +31332,8 @@
         <v>0.69920302064852791</v>
       </c>
       <c r="C87" s="3">
-        <f ca="1">$C$2*B87+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.5830627193929896</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9714767074245687</v>
       </c>
     </row>
     <row r="88" spans="2:3">
@@ -31341,8 +31341,8 @@
         <v>0.10901080437221833</v>
       </c>
       <c r="C88" s="3">
-        <f ca="1">$C$2*B88+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.1198838816243954</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4878904624125808</v>
       </c>
     </row>
     <row r="89" spans="2:3">
@@ -31350,8 +31350,8 @@
         <v>0.71641371086437611</v>
       </c>
       <c r="C89" s="3">
-        <f ca="1">$C$2*B89+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.1901007460606126</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5382322063238609</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -31359,8 +31359,8 @@
         <v>0.52850228763494012</v>
       </c>
       <c r="C90" s="3">
-        <f ca="1">$C$2*B90+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.3312660121663011</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.4485851925293947</v>
       </c>
     </row>
     <row r="91" spans="2:3">
@@ -31368,8 +31368,8 @@
         <v>0.21576695923927469</v>
       </c>
       <c r="C91" s="3">
-        <f ca="1">$C$2*B91+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.750721717839012</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98002518204360289</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -31377,8 +31377,8 @@
         <v>0.31979735794705644</v>
       </c>
       <c r="C92" s="3">
-        <f ca="1">$C$2*B92+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.8722660022629718</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5919945431773663</v>
       </c>
     </row>
     <row r="93" spans="2:3">
@@ -31386,8 +31386,8 @@
         <v>0.13169558284673211</v>
       </c>
       <c r="C93" s="3">
-        <f ca="1">$C$2*B93+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.5364576822219509</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1097096612682154</v>
       </c>
     </row>
     <row r="94" spans="2:3">
@@ -31395,8 +31395,8 @@
         <v>6.7195718700443496E-3</v>
       </c>
       <c r="C94" s="3">
-        <f ca="1">$C$2*B94+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.3925560762631011</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3527612837761769</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -31404,8 +31404,8 @@
         <v>2.5377625285715744E-2</v>
       </c>
       <c r="C95" s="3">
-        <f ca="1">$C$2*B95+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4372909695700011</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89994584158051771</v>
       </c>
     </row>
     <row r="96" spans="2:3">
@@ -31413,8 +31413,8 @@
         <v>0.22513040755374358</v>
       </c>
       <c r="C96" s="3">
-        <f ca="1">$C$2*B96+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.7210588938727871</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.195589871554203</v>
       </c>
     </row>
     <row r="97" spans="2:3">
@@ -31422,8 +31422,8 @@
         <v>0.75167341921533981</v>
       </c>
       <c r="C97" s="3">
-        <f ca="1">$C$2*B97+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.3967395501799351</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7247555825518095</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -31431,8 +31431,8 @@
         <v>0.92119004197184318</v>
       </c>
       <c r="C98" s="3">
-        <f ca="1">$C$2*B98+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.2882381583954636</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3218993466617333</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -31440,8 +31440,8 @@
         <v>0.98436274452338701</v>
       </c>
       <c r="C99" s="3">
-        <f ca="1">$C$2*B99+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.9330345280271644</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.521767643570723</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -31449,8 +31449,8 @@
         <v>0.87266277448035234</v>
       </c>
       <c r="C100" s="3">
-        <f ca="1">$C$2*B100+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.0456737455232208</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3741398457741898</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -31458,8 +31458,8 @@
         <v>0.84987064018069336</v>
       </c>
       <c r="C101" s="3">
-        <f ca="1">$C$2*B101+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.1468383422624968</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2208922914881963</v>
       </c>
     </row>
     <row r="102" spans="2:3">
@@ -31467,8 +31467,8 @@
         <v>0.30585850840075579</v>
       </c>
       <c r="C102" s="3">
-        <f ca="1">$C$2*B102+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.712998768720948</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3393404507427444</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -31476,8 +31476,8 @@
         <v>0.21070429792126311</v>
       </c>
       <c r="C103" s="3">
-        <f ca="1">$C$2*B103+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.93087116549728799</v>
+        <f t="shared" ref="C103:C134" ca="1" si="3">$C$2*B103+$C$3+$C$4*(2*RAND()-1)</f>
+        <v>1.3607825536926208</v>
       </c>
     </row>
     <row r="104" spans="2:3">
@@ -31485,8 +31485,8 @@
         <v>9.4305716891940561E-2</v>
       </c>
       <c r="C104" s="3">
-        <f ca="1">$C$2*B104+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.3998413884375172</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.3386551978926224</v>
       </c>
     </row>
     <row r="105" spans="2:3">
@@ -31494,8 +31494,8 @@
         <v>7.097144296162039E-2</v>
       </c>
       <c r="C105" s="3">
-        <f ca="1">$C$2*B105+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.6021312214411596</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.66098871815761362</v>
       </c>
     </row>
     <row r="106" spans="2:3">
@@ -31503,8 +31503,8 @@
         <v>0.3370777173217343</v>
       </c>
       <c r="C106" s="3">
-        <f ca="1">$C$2*B106+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.0467278825434185</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0843316607618232</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -31512,8 +31512,8 @@
         <v>0.2017674242783748</v>
       </c>
       <c r="C107" s="3">
-        <f ca="1">$C$2*B107+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.6382404192299385</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2044447586154736</v>
       </c>
     </row>
   </sheetData>

--- a/day2/C3/excel_demo.xlsx
+++ b/day2/C3/excel_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syafribahar/Documents/gods_bootcamp03_instructors/day2/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF127E5-9B67-0949-BB7B-9C5E58B78053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ABBC6-5838-C848-AAC8-2EABDFE95111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{E8D9986B-7092-3442-B60C-5657B6B302CD}"/>
   </bookViews>
@@ -585,307 +585,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>1.4004770715777379</c:v>
+                  <c:v>3.5555228365616296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0336182704534957</c:v>
+                  <c:v>3.0984354931224463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.379617693489062</c:v>
+                  <c:v>2.1866873843858441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9142717851697117</c:v>
+                  <c:v>3.3678136004262123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4733731458310253</c:v>
+                  <c:v>2.017641374313349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85254221699569699</c:v>
+                  <c:v>2.6951856700054453</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7458752718300063</c:v>
+                  <c:v>2.8636220269515178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8573679605736324</c:v>
+                  <c:v>2.9373039276219419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4148548321562737</c:v>
+                  <c:v>3.0246167206663341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7978245713567205</c:v>
+                  <c:v>3.6848105866291139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0714216313389655</c:v>
+                  <c:v>5.0612520875161993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9333610460804698</c:v>
+                  <c:v>3.2166048774370406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8330196577717821</c:v>
+                  <c:v>3.723711017348446</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2847561458355385</c:v>
+                  <c:v>2.7602752513254414</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7697056907276032</c:v>
+                  <c:v>2.6277696169631897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2831575616096087</c:v>
+                  <c:v>3.2415313413213971</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1951560776471353</c:v>
+                  <c:v>3.5229019587606851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8093823939983302</c:v>
+                  <c:v>4.932174305495451</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5963307530597657</c:v>
+                  <c:v>4.1410344977812761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1530946839495635</c:v>
+                  <c:v>4.6236236774551678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6528760361600776</c:v>
+                  <c:v>4.3849858097703471</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1975830501924021</c:v>
+                  <c:v>3.3963931493492518</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.700717526689504</c:v>
+                  <c:v>3.5071834186107784</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.359333391854709</c:v>
+                  <c:v>3.5929223410499693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.2964453550259847</c:v>
+                  <c:v>1.9281946035178237</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.209711169803481</c:v>
+                  <c:v>3.2440590038136663</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6312045912073723</c:v>
+                  <c:v>3.0589905867599776</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2981581193932676</c:v>
+                  <c:v>3.93486476991851</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6855131915015302</c:v>
+                  <c:v>2.6274656913171035</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2394720874267104</c:v>
+                  <c:v>3.3365416967764578</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.71038747533669566</c:v>
+                  <c:v>2.3675563570112663</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9146629754045792</c:v>
+                  <c:v>4.3059341237087674</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1309188477513183</c:v>
+                  <c:v>2.9780177310684457</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3370686958884779</c:v>
+                  <c:v>4.7568911152041746</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7404500568578407</c:v>
+                  <c:v>3.574999864529961</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.674128781037961</c:v>
+                  <c:v>2.4549422676790589</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8228882563197456</c:v>
+                  <c:v>2.2176396743841074</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1023502890887507</c:v>
+                  <c:v>4.9143535800073632</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1811757535330845</c:v>
+                  <c:v>2.944955108082282</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3492025905797616</c:v>
+                  <c:v>2.9994081348178598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7264453371085859</c:v>
+                  <c:v>5.2350484283745953</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3928245518877729</c:v>
+                  <c:v>3.199569319045104</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.2575568864417885</c:v>
+                  <c:v>4.3568904041731145</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4979160238618432</c:v>
+                  <c:v>2.8583029111785221</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8216249993318463</c:v>
+                  <c:v>2.6723054753488595</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.3731797218350343</c:v>
+                  <c:v>5.0365593757108478</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.17381618739152</c:v>
+                  <c:v>2.4659395127891317</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2287231060616874</c:v>
+                  <c:v>4.3337873958886348</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.975989167075606</c:v>
+                  <c:v>3.6760056493564539</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9089438198659074</c:v>
+                  <c:v>4.5186949803790624</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.7516103811452775</c:v>
+                  <c:v>4.1609660701205282</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9672479391857371</c:v>
+                  <c:v>2.5556196803345737</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3887703037903836</c:v>
+                  <c:v>3.9089619562854785</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1149221137813252</c:v>
+                  <c:v>3.7678810073494642</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2793914856477053</c:v>
+                  <c:v>2.0376619150557969</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4753879648283021</c:v>
+                  <c:v>2.8450845287731914</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2291514716753413</c:v>
+                  <c:v>3.0643690278876319</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.4887251341899308</c:v>
+                  <c:v>2.5711298082411096</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.7563502148388754</c:v>
+                  <c:v>3.7373762427002193</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.2887531876147142</c:v>
+                  <c:v>2.9697919812250104</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0132980511482983</c:v>
+                  <c:v>3.3842735068159828</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9748623817434736</c:v>
+                  <c:v>4.4630017897230152</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.2586570354220332</c:v>
+                  <c:v>3.0843256662644527</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.4178083220778221</c:v>
+                  <c:v>3.9357020629991788</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.99426722135127876</c:v>
+                  <c:v>2.816576469786936</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.0223336523907784</c:v>
+                  <c:v>5.1495894664162929</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.91817399156036639</c:v>
+                  <c:v>2.3555770332498627</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5579361063075159</c:v>
+                  <c:v>2.0417020148554208</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.5774395275798039</c:v>
+                  <c:v>3.7906128355760309</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.5868906503056226</c:v>
+                  <c:v>3.701311791000971</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0098205837981467</c:v>
+                  <c:v>4.9785801930770619</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9323267729229716</c:v>
+                  <c:v>3.3389587469668935</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.78548816263778676</c:v>
+                  <c:v>2.4709245565001225</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9364247999189663</c:v>
+                  <c:v>3.1203683938119946</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.7845275489471808</c:v>
+                  <c:v>3.7558504471257343</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2292509305092356</c:v>
+                  <c:v>1.8334733976489672</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.2156171510316578</c:v>
+                  <c:v>3.5558885543926007</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.6277491886100512</c:v>
+                  <c:v>4.0738972555715023</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7390240397019165</c:v>
+                  <c:v>2.2187159817317172</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.2749522009181147</c:v>
+                  <c:v>2.8024768107579519</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9714767074245687</c:v>
+                  <c:v>4.2369418479217806</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.4878904624125808</c:v>
+                  <c:v>2.1748360615976829</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.5382322063238609</c:v>
+                  <c:v>4.3310112688230502</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.4485851925293947</c:v>
+                  <c:v>3.702980823783756</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.98002518204360289</c:v>
+                  <c:v>2.2089726215871872</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5919945431773663</c:v>
+                  <c:v>2.742795921918634</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1097096612682154</c:v>
+                  <c:v>2.0371932610723045</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3527612837761769</c:v>
+                  <c:v>2.4762665406416984</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.89994584158051771</c:v>
+                  <c:v>1.8970726836200043</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.195589871554203</c:v>
+                  <c:v>2.7962043022396905</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.7247555825518095</c:v>
+                  <c:v>4.2804187806988239</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.3218993466617333</c:v>
+                  <c:v>4.7193093010875211</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.521767643570723</c:v>
+                  <c:v>4.8040007665895113</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.3741398457741898</c:v>
+                  <c:v>5.0258685688349276</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.2208922914881963</c:v>
+                  <c:v>4.7121649678001694</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3393404507427444</c:v>
+                  <c:v>2.4250178195836805</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3607825536926208</c:v>
+                  <c:v>2.4891353916696941</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3386551978926224</c:v>
+                  <c:v>2.3467148217234914</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.66098871815761362</c:v>
+                  <c:v>1.7964776317093307</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.0843316607618232</c:v>
+                  <c:v>3.1883951077693222</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.2044447586154736</c:v>
+                  <c:v>2.3008262150147778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30563,7 +30563,7 @@
   <dimension ref="B1:F107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30578,7 +30578,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -30586,7 +30586,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -30611,7 +30611,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C38" ca="1" si="0">$C$2*B7+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.4004770715777379</v>
+        <v>3.5555228365616296</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -30620,7 +30620,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0336182704534957</v>
+        <v>3.0984354931224463</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -30629,7 +30629,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.379617693489062</v>
+        <v>2.1866873843858441</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -30638,7 +30638,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9142717851697117</v>
+        <v>3.3678136004262123</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -30649,7 +30649,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4733731458310253</v>
+        <v>2.017641374313349</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -30658,7 +30658,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85254221699569699</v>
+        <v>2.6951856700054453</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -30667,7 +30667,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7458752718300063</v>
+        <v>2.8636220269515178</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8573679605736324</v>
+        <v>2.9373039276219419</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -30685,7 +30685,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4148548321562737</v>
+        <v>3.0246167206663341</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -30694,7 +30694,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7978245713567205</v>
+        <v>3.6848105866291139</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -30703,7 +30703,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0714216313389655</v>
+        <v>5.0612520875161993</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -30712,7 +30712,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9333610460804698</v>
+        <v>3.2166048774370406</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -30721,7 +30721,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8330196577717821</v>
+        <v>3.723711017348446</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -30730,7 +30730,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2847561458355385</v>
+        <v>2.7602752513254414</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -30739,7 +30739,7 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7697056907276032</v>
+        <v>2.6277696169631897</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -30748,7 +30748,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2831575616096087</v>
+        <v>3.2415313413213971</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -30757,7 +30757,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1951560776471353</v>
+        <v>3.5229019587606851</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -30766,7 +30766,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8093823939983302</v>
+        <v>4.932174305495451</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -30775,7 +30775,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5963307530597657</v>
+        <v>4.1410344977812761</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -30784,7 +30784,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1530946839495635</v>
+        <v>4.6236236774551678</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -30793,7 +30793,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6528760361600776</v>
+        <v>4.3849858097703471</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -30802,7 +30802,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1975830501924021</v>
+        <v>3.3963931493492518</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -30811,7 +30811,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.700717526689504</v>
+        <v>3.5071834186107784</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -30820,7 +30820,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.359333391854709</v>
+        <v>3.5929223410499693</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -30829,7 +30829,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2964453550259847</v>
+        <v>1.9281946035178237</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -30838,7 +30838,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.209711169803481</v>
+        <v>3.2440590038136663</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -30847,7 +30847,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6312045912073723</v>
+        <v>3.0589905867599776</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -30856,7 +30856,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2981581193932676</v>
+        <v>3.93486476991851</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6855131915015302</v>
+        <v>2.6274656913171035</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -30874,7 +30874,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2394720874267104</v>
+        <v>3.3365416967764578</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -30883,7 +30883,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71038747533669566</v>
+        <v>2.3675563570112663</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -30892,7 +30892,7 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9146629754045792</v>
+        <v>4.3059341237087674</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -30901,7 +30901,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ref="C39:C70" ca="1" si="1">$C$2*B39+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.1309188477513183</v>
+        <v>2.9780177310684457</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -30910,7 +30910,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3370686958884779</v>
+        <v>4.7568911152041746</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -30919,7 +30919,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7404500568578407</v>
+        <v>3.574999864529961</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -30928,7 +30928,7 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.674128781037961</v>
+        <v>2.4549422676790589</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -30937,7 +30937,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8228882563197456</v>
+        <v>2.2176396743841074</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -30946,7 +30946,7 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1023502890887507</v>
+        <v>4.9143535800073632</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -30955,7 +30955,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1811757535330845</v>
+        <v>2.944955108082282</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -30964,7 +30964,7 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3492025905797616</v>
+        <v>2.9994081348178598</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -30973,7 +30973,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7264453371085859</v>
+        <v>5.2350484283745953</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3928245518877729</v>
+        <v>3.199569319045104</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -30991,7 +30991,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2575568864417885</v>
+        <v>4.3568904041731145</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -31000,7 +31000,7 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4979160238618432</v>
+        <v>2.8583029111785221</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -31009,7 +31009,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8216249993318463</v>
+        <v>2.6723054753488595</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3731797218350343</v>
+        <v>5.0365593757108478</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -31027,7 +31027,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.17381618739152</v>
+        <v>2.4659395127891317</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -31036,7 +31036,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2287231060616874</v>
+        <v>4.3337873958886348</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -31045,7 +31045,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.975989167075606</v>
+        <v>3.6760056493564539</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -31054,7 +31054,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9089438198659074</v>
+        <v>4.5186949803790624</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -31063,7 +31063,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7516103811452775</v>
+        <v>4.1609660701205282</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -31072,7 +31072,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9672479391857371</v>
+        <v>2.5556196803345737</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -31081,7 +31081,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3887703037903836</v>
+        <v>3.9089619562854785</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -31090,7 +31090,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1149221137813252</v>
+        <v>3.7678810073494642</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -31099,7 +31099,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2793914856477053</v>
+        <v>2.0376619150557969</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -31108,7 +31108,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4753879648283021</v>
+        <v>2.8450845287731914</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -31117,7 +31117,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2291514716753413</v>
+        <v>3.0643690278876319</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -31126,7 +31126,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4887251341899308</v>
+        <v>2.5711298082411096</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7563502148388754</v>
+        <v>3.7373762427002193</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -31144,7 +31144,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2887531876147142</v>
+        <v>2.9697919812250104</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -31153,7 +31153,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0132980511482983</v>
+        <v>3.3842735068159828</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -31162,7 +31162,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9748623817434736</v>
+        <v>4.4630017897230152</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -31171,7 +31171,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2586570354220332</v>
+        <v>3.0843256662644527</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -31180,7 +31180,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4178083220778221</v>
+        <v>3.9357020629991788</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -31189,7 +31189,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ref="C71:C102" ca="1" si="2">$C$2*B71+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>0.99426722135127876</v>
+        <v>2.816576469786936</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -31198,7 +31198,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0223336523907784</v>
+        <v>5.1495894664162929</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -31207,7 +31207,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91817399156036639</v>
+        <v>2.3555770332498627</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -31216,7 +31216,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5579361063075159</v>
+        <v>2.0417020148554208</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -31225,7 +31225,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5774395275798039</v>
+        <v>3.7906128355760309</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -31234,7 +31234,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5868906503056226</v>
+        <v>3.701311791000971</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -31243,7 +31243,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0098205837981467</v>
+        <v>4.9785801930770619</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -31252,7 +31252,7 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9323267729229716</v>
+        <v>3.3389587469668935</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78548816263778676</v>
+        <v>2.4709245565001225</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -31270,7 +31270,7 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9364247999189663</v>
+        <v>3.1203683938119946</v>
       </c>
     </row>
     <row r="81" spans="2:3">
@@ -31279,7 +31279,7 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7845275489471808</v>
+        <v>3.7558504471257343</v>
       </c>
     </row>
     <row r="82" spans="2:3">
@@ -31288,7 +31288,7 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2292509305092356</v>
+        <v>1.8334733976489672</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="C83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2156171510316578</v>
+        <v>3.5558885543926007</v>
       </c>
     </row>
     <row r="84" spans="2:3">
@@ -31306,7 +31306,7 @@
       </c>
       <c r="C84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6277491886100512</v>
+        <v>4.0738972555715023</v>
       </c>
     </row>
     <row r="85" spans="2:3">
@@ -31315,7 +31315,7 @@
       </c>
       <c r="C85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7390240397019165</v>
+        <v>2.2187159817317172</v>
       </c>
     </row>
     <row r="86" spans="2:3">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="C86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2749522009181147</v>
+        <v>2.8024768107579519</v>
       </c>
     </row>
     <row r="87" spans="2:3">
@@ -31333,7 +31333,7 @@
       </c>
       <c r="C87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9714767074245687</v>
+        <v>4.2369418479217806</v>
       </c>
     </row>
     <row r="88" spans="2:3">
@@ -31342,7 +31342,7 @@
       </c>
       <c r="C88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4878904624125808</v>
+        <v>2.1748360615976829</v>
       </c>
     </row>
     <row r="89" spans="2:3">
@@ -31351,7 +31351,7 @@
       </c>
       <c r="C89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5382322063238609</v>
+        <v>4.3310112688230502</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -31360,7 +31360,7 @@
       </c>
       <c r="C90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4485851925293947</v>
+        <v>3.702980823783756</v>
       </c>
     </row>
     <row r="91" spans="2:3">
@@ -31369,7 +31369,7 @@
       </c>
       <c r="C91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98002518204360289</v>
+        <v>2.2089726215871872</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -31378,7 +31378,7 @@
       </c>
       <c r="C92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5919945431773663</v>
+        <v>2.742795921918634</v>
       </c>
     </row>
     <row r="93" spans="2:3">
@@ -31387,7 +31387,7 @@
       </c>
       <c r="C93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1097096612682154</v>
+        <v>2.0371932610723045</v>
       </c>
     </row>
     <row r="94" spans="2:3">
@@ -31396,7 +31396,7 @@
       </c>
       <c r="C94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3527612837761769</v>
+        <v>2.4762665406416984</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -31405,7 +31405,7 @@
       </c>
       <c r="C95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89994584158051771</v>
+        <v>1.8970726836200043</v>
       </c>
     </row>
     <row r="96" spans="2:3">
@@ -31414,7 +31414,7 @@
       </c>
       <c r="C96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.195589871554203</v>
+        <v>2.7962043022396905</v>
       </c>
     </row>
     <row r="97" spans="2:3">
@@ -31423,7 +31423,7 @@
       </c>
       <c r="C97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7247555825518095</v>
+        <v>4.2804187806988239</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -31432,7 +31432,7 @@
       </c>
       <c r="C98" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3218993466617333</v>
+        <v>4.7193093010875211</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -31441,7 +31441,7 @@
       </c>
       <c r="C99" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.521767643570723</v>
+        <v>4.8040007665895113</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -31450,7 +31450,7 @@
       </c>
       <c r="C100" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3741398457741898</v>
+        <v>5.0258685688349276</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -31459,7 +31459,7 @@
       </c>
       <c r="C101" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2208922914881963</v>
+        <v>4.7121649678001694</v>
       </c>
     </row>
     <row r="102" spans="2:3">
@@ -31468,7 +31468,7 @@
       </c>
       <c r="C102" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3393404507427444</v>
+        <v>2.4250178195836805</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -31476,8 +31476,8 @@
         <v>0.21070429792126311</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" ref="C103:C134" ca="1" si="3">$C$2*B103+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>1.3607825536926208</v>
+        <f t="shared" ref="C103:C107" ca="1" si="3">$C$2*B103+$C$3+$C$4*(2*RAND()-1)</f>
+        <v>2.4891353916696941</v>
       </c>
     </row>
     <row r="104" spans="2:3">
@@ -31486,7 +31486,7 @@
       </c>
       <c r="C104" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3386551978926224</v>
+        <v>2.3467148217234914</v>
       </c>
     </row>
     <row r="105" spans="2:3">
@@ -31495,7 +31495,7 @@
       </c>
       <c r="C105" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66098871815761362</v>
+        <v>1.7964776317093307</v>
       </c>
     </row>
     <row r="106" spans="2:3">
@@ -31504,7 +31504,7 @@
       </c>
       <c r="C106" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0843316607618232</v>
+        <v>3.1883951077693222</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -31513,7 +31513,7 @@
       </c>
       <c r="C107" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2044447586154736</v>
+        <v>2.3008262150147778</v>
       </c>
     </row>
   </sheetData>

--- a/day2/C3/excel_demo.xlsx
+++ b/day2/C3/excel_demo.xlsx
@@ -8,15 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syafribahar/Documents/gods_bootcamp03_instructors/day2/C3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ABBC6-5838-C848-AAC8-2EABDFE95111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BB4A7-E7EC-5749-A3BB-A9F12EA2FCB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{E8D9986B-7092-3442-B60C-5657B6B302CD}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16100" activeTab="2" xr2:uid="{E8D9986B-7092-3442-B60C-5657B6B302CD}"/>
   </bookViews>
   <sheets>
     <sheet name="multivariate" sheetId="1" r:id="rId1"/>
     <sheet name="univariate_data" sheetId="2" r:id="rId2"/>
+    <sheet name="logistic regression" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'logistic regression'!$D$7</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'logistic regression'!$D$8:$D$108</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'logistic regression'!$D$8:$D$208</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'logistic regression'!$C$8:$C$208</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'logistic regression'!$C$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'logistic regression'!$C$8:$C$108</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'logistic regression'!$D$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'logistic regression'!$D$8:$D$108</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'logistic regression'!$D$8:$D$208</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">multivariate!$A$2:$M$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -54,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>CRIM</t>
   </si>
@@ -124,13 +146,35 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>log_odds</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -182,14 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,307 +630,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3.5555228365616296</c:v>
+                  <c:v>1.9247554592033649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0984354931224463</c:v>
+                  <c:v>1.2331167078556753</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1866873843858441</c:v>
+                  <c:v>0.96029531834077286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3678136004262123</c:v>
+                  <c:v>1.8985390897439562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.017641374313349</c:v>
+                  <c:v>0.28324790443757852</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6951856700054453</c:v>
+                  <c:v>0.80666076043849644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8636220269515178</c:v>
+                  <c:v>1.3644852642345002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9373039276219419</c:v>
+                  <c:v>1.8983087262184624</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0246167206663341</c:v>
+                  <c:v>1.5071427214232433</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6848105866291139</c:v>
+                  <c:v>1.9112581041356318</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0612520875161993</c:v>
+                  <c:v>2.7027074982245574</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2166048774370406</c:v>
+                  <c:v>0.98504983162175053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.723711017348446</c:v>
+                  <c:v>2.1402460058418527</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7602752513254414</c:v>
+                  <c:v>1.5621095804937761</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6277696169631897</c:v>
+                  <c:v>0.94604852237294446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2415313413213971</c:v>
+                  <c:v>1.1989977323573744</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5229019587606851</c:v>
+                  <c:v>1.7333647151646669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.932174305495451</c:v>
+                  <c:v>3.0567137472978732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1410344977812761</c:v>
+                  <c:v>2.0752306464080799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6236236774551678</c:v>
+                  <c:v>3.1017462905906159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3849858097703471</c:v>
+                  <c:v>2.8073705508640203</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3963931493492518</c:v>
+                  <c:v>1.2095009314094602</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5071834186107784</c:v>
+                  <c:v>1.9360934459011592</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5929223410499693</c:v>
+                  <c:v>2.2032952238444987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9281946035178237</c:v>
+                  <c:v>1.5322283739469422E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2440590038136663</c:v>
+                  <c:v>1.574240609857712</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0589905867599776</c:v>
+                  <c:v>1.6324069114546378</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.93486476991851</c:v>
+                  <c:v>2.741628692814154</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6274656913171035</c:v>
+                  <c:v>1.186476478896453</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3365416967764578</c:v>
+                  <c:v>2.4146016797054828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3675563570112663</c:v>
+                  <c:v>0.35878381789075975</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3059341237087674</c:v>
+                  <c:v>1.9464791998589028</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9780177310684457</c:v>
+                  <c:v>1.0448360263715322</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.7568911152041746</c:v>
+                  <c:v>2.4739556113311787</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.574999864529961</c:v>
+                  <c:v>1.9207373029870942</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4549422676790589</c:v>
+                  <c:v>1.1980471999685576</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2176396743841074</c:v>
+                  <c:v>0.33263665597661252</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.9143535800073632</c:v>
+                  <c:v>2.999391544066353</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.944955108082282</c:v>
+                  <c:v>1.4833450208258303</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.9994081348178598</c:v>
+                  <c:v>1.3739141130539392</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.2350484283745953</c:v>
+                  <c:v>3.0712064375359542</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.199569319045104</c:v>
+                  <c:v>0.83488284617110131</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3568904041731145</c:v>
+                  <c:v>2.8237349221886872</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.8583029111785221</c:v>
+                  <c:v>1.3126158321973551</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6723054753488595</c:v>
+                  <c:v>1.1140470676518175</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0365593757108478</c:v>
+                  <c:v>2.6141877385338761</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.4659395127891317</c:v>
+                  <c:v>1.3101344216971875</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.3337873958886348</c:v>
+                  <c:v>2.1664617112200864</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6760056493564539</c:v>
+                  <c:v>2.1078429572912007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.5186949803790624</c:v>
+                  <c:v>2.3942438592611275</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.1609660701205282</c:v>
+                  <c:v>2.6309071324289848</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5556196803345737</c:v>
+                  <c:v>0.67428648926913082</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.9089619562854785</c:v>
+                  <c:v>2.3536275534250555</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7678810073494642</c:v>
+                  <c:v>2.5578783195308286</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0376619150557969</c:v>
+                  <c:v>0.60795730856607777</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.8450845287731914</c:v>
+                  <c:v>0.65121926022304355</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0643690278876319</c:v>
+                  <c:v>1.3934547842270302</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.5711298082411096</c:v>
+                  <c:v>1.0532826534420454</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.7373762427002193</c:v>
+                  <c:v>2.2731155179108899</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.9697919812250104</c:v>
+                  <c:v>2.0177312976718813</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.3842735068159828</c:v>
+                  <c:v>1.7409612994893</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.4630017897230152</c:v>
+                  <c:v>2.0321540425146938</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3.0843256662644527</c:v>
+                  <c:v>1.3159937349639574</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.9357020629991788</c:v>
+                  <c:v>2.3382280379543294</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.816576469786936</c:v>
+                  <c:v>0.74454824382369533</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.1495894664162929</c:v>
+                  <c:v>2.8239406217243923</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.3555770332498627</c:v>
+                  <c:v>0.86377766941653256</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0417020148554208</c:v>
+                  <c:v>0.84019166430818448</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.7906128355760309</c:v>
+                  <c:v>2.3837912697212591</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.701311791000971</c:v>
+                  <c:v>1.4904600648488899</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9785801930770619</c:v>
+                  <c:v>2.5897154343485318</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.3389587469668935</c:v>
+                  <c:v>1.7890420421495328</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4709245565001225</c:v>
+                  <c:v>0.99927484563454616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1203683938119946</c:v>
+                  <c:v>2.0152852450971137</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.7558504471257343</c:v>
+                  <c:v>2.4506755994423171</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.8334733976489672</c:v>
+                  <c:v>0.3072708425422862</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.5558885543926007</c:v>
+                  <c:v>1.8067833509574538</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.0738972555715023</c:v>
+                  <c:v>2.8286560657321904</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.2187159817317172</c:v>
+                  <c:v>0.72551274999711823</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.8024768107579519</c:v>
+                  <c:v>0.80052882515397539</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.2369418479217806</c:v>
+                  <c:v>2.2900353013590111</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.1748360615976829</c:v>
+                  <c:v>0.8466264459949443</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.3310112688230502</c:v>
+                  <c:v>2.206067724755167</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.702980823783756</c:v>
+                  <c:v>1.719334553741003</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.2089726215871872</c:v>
+                  <c:v>1.511683427046743</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.742795921918634</c:v>
+                  <c:v>0.86734966045753092</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.0371932610723045</c:v>
+                  <c:v>1.0990050802552684</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4762665406416984</c:v>
+                  <c:v>0.43374630660937963</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8970726836200043</c:v>
+                  <c:v>0.78780589031201886</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.7962043022396905</c:v>
+                  <c:v>0.64427532820736</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.2804187806988239</c:v>
+                  <c:v>2.2116189934321193</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.7193093010875211</c:v>
+                  <c:v>2.6571613524151276</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.8040007665895113</c:v>
+                  <c:v>2.9329097254339844</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.0258685688349276</c:v>
+                  <c:v>2.4874775779072964</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.7121649678001694</c:v>
+                  <c:v>3.0679083215648761</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.4250178195836805</c:v>
+                  <c:v>1.4718332075077538</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.4891353916696941</c:v>
+                  <c:v>0.86413341006062039</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.3467148217234914</c:v>
+                  <c:v>1.0562539381710487</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.7964776317093307</c:v>
+                  <c:v>0.62889176995934604</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.1883951077693222</c:v>
+                  <c:v>1.5125328444649364</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.3008262150147778</c:v>
+                  <c:v>1.4864649099485319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1101,1661 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'logistic regression'!$C$8:$C$208</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>-6.5575259866827385E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.8070556362140959E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.23591343646458704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.14209686350211684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.21642905268674581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.6337791607922684E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.2876575331561194E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.22165776282183133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1192081563962288E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25136532568002157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17554719453281623</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0412288515796633E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.20538167544746896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.5369468417758305E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.23096459416711965</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.1881760954541454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.4183642530588697E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.16636849672465823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24447053406077654</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9790508885169608E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.23151607166576357</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6982944853696488E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.22805898446847275</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.26465905824097657</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1190644796023032E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.17587942495120748</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.922591693899441E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.27894676591773582</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.5985778064130834E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4740728737156997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.10215444047690311</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.16170291334679623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.21172614352813027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.28432748003048025</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.3404269452634746E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.746783770741874E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-5.879663098841123E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1941527910789007E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.22036180390308666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0851597854776719E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.17698253193553351</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.28758366201136221</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.16830093813804445</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.29359399067039005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.18820174878593807</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4.7799498690572373E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.7973456938573246E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.3437981168270977E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.9381982419087879E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-9.3957510107574749E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.14143547369216131</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-3.576834773145729E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.121191063479354E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.15845167007323505</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-6.6086622439682635E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3115612921972802E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2637031691300213E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.4258107701060694E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.10725141031433746</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.0168334132165627E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.27783258891768059</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.21696813461213402</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.1290924124785168</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.22120339835178834</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.21399686926303121</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-7.5169492548439049E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.21436072905072343</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.16700494921131284</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.19329205682132564</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.1638306038531914E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.4945818652429527E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.11906573265696904</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.18272637936707667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.3455438239555072E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5.0125003682994024E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.4185508362527234E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.1663178687547783E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.29867275347302025</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.6413736948112269E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.1518501549457753E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-6.3685556780008507E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.2479035807489601E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.9907993718668813E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.19277849557741336</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.9959956541284877E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-5.3350560163159949E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.19413475612285028</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5802245354904875E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.3910724386092586E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.1434741891945083</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.9472428570675326E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-9.6430743778433498E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-5.6876502536510692E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.25739468166102264</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.11781115931945937</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.9085662486332892E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.13629728334612665</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.17821416302953427</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4332613648752185E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-3.8196544151376577E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.8138655891745901E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.10715049216648037</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-3.8573168516712719E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.16961036418216055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.28128276658831186</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.1883346968355024E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3261463478609459E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.15028143628597837</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.23584570195470625</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.10732585365690772</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.3765473143157629E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3017183654153983E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.19576317898186971</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.2733174164083154E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-8.8846597928970317E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-6.2497189670925435E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.25098549093275724</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.1573572564558466E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.28474953507594436</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.7713049824307824E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-2.9279240704349618E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.19354536936484681</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.24287470243823192</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-6.2137365048958643E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.3882810399472737E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.18238499728387139</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.1282905739743225</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.21313544940489856</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.22658680111203564</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.4017481947346698E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-3.1969147358519384E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-7.0285057592709865E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-4.8031215736916572E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.20151778159321646</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.10633168873441634</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.6632782002821769E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-7.1186149294105688E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.0910725468733435E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.17518422605493297</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.0410462307647637E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-6.3364113054056675E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-9.4890363480750306E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-0.16264246129230878</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-0.12680513869281343</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-0.10386401659432928</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-3.8145283226644594E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.8034873298688475E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-8.5676526717352014E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-0.15579229894778698</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-2.2505102413932804E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>8.4683839217263177E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-4.5329408697147133E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.24214589800406275</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.24043144073981168</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.22224506777382322</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-7.6337361622470568E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-0.18836184556190336</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-0.15811989339039248</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9.8659526236593867E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.3349464934405003E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.27449552451479853</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.18267590433267708</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-3.9596071054055354E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.15195156903958704</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.13705525405327768</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.28080520377102014</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.3489073026931614E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.1525228357922564E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.11771881711639814</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.10891590716708285</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.26114878379182016</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.23661352614871975</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.0020476575476147E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.4436250780994309E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-4.5569537776052021E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.23746911570742854</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-0.29066348942463793</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-3.225440396178042E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.216644497703845</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.27639749430840099</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-0.10786427324700418</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.5844348938701485E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.7749181091385902E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.5792861119060131E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-1.1030796187233932E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-0.23318483943741533</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.26052083652975899</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-8.1262474853833588E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.9510662500536744E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-0.1960961201860186</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-9.6776349269350664E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>7.821298757180975E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8.5275928240349824E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.3645551424980713E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-7.5678015052950104E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.4888091608517385E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-9.9374632641690941E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-9.3672777376725941E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-0.17976878375709074</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.9264619360377888E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-0.22417862842793754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'logistic regression'!$E$8:$E$208</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCA0-0744-BCA0-677A6E604E3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="26829648"/>
+        <c:axId val="26831328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="26829648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26831328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="26831328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="26829648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histogram of Log-odds</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histogram of Log-odds</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4A952F64-B9A8-484E-A392-F06109222B05}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>log_odds</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Histogram of scores</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Histogram of scores</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{36B9CEC0-8855-C04C-BB21-435D7D702B4F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1612,6 +3311,1538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1650,6 +4881,205 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90DE38A8-867B-AF48-B069-6E55B87EC061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7827F788-48A3-B14C-A46E-0FB9C43D694A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4978400" y="5778500"/>
+              <a:ext cx="7810500" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DEC1AF-44DB-B34F-BEAA-8693721CBF74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4953000" y="9144000"/>
+              <a:ext cx="7810500" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30562,8 +33992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C0F0D8-0CA7-9149-9A0E-75BA19FE5B07}">
   <dimension ref="B1:F107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30578,7 +34008,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -30586,14 +34016,14 @@
         <v>18</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -30611,7 +34041,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C38" ca="1" si="0">$C$2*B7+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>3.5555228365616296</v>
+        <v>1.9247554592033649</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -30620,7 +34050,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0984354931224463</v>
+        <v>1.2331167078556753</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -30629,7 +34059,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1866873843858441</v>
+        <v>0.96029531834077286</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -30638,7 +34068,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3678136004262123</v>
+        <v>1.8985390897439562</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -30649,7 +34079,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.017641374313349</v>
+        <v>0.28324790443757852</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -30658,7 +34088,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6951856700054453</v>
+        <v>0.80666076043849644</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -30667,7 +34097,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8636220269515178</v>
+        <v>1.3644852642345002</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -30676,7 +34106,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9373039276219419</v>
+        <v>1.8983087262184624</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -30685,7 +34115,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0246167206663341</v>
+        <v>1.5071427214232433</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -30694,7 +34124,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6848105866291139</v>
+        <v>1.9112581041356318</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -30703,7 +34133,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0612520875161993</v>
+        <v>2.7027074982245574</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -30712,7 +34142,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2166048774370406</v>
+        <v>0.98504983162175053</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -30721,7 +34151,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.723711017348446</v>
+        <v>2.1402460058418527</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -30730,7 +34160,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7602752513254414</v>
+        <v>1.5621095804937761</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -30739,7 +34169,7 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6277696169631897</v>
+        <v>0.94604852237294446</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -30748,7 +34178,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2415313413213971</v>
+        <v>1.1989977323573744</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -30757,7 +34187,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5229019587606851</v>
+        <v>1.7333647151646669</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -30766,7 +34196,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.932174305495451</v>
+        <v>3.0567137472978732</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -30775,7 +34205,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1410344977812761</v>
+        <v>2.0752306464080799</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -30784,7 +34214,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6236236774551678</v>
+        <v>3.1017462905906159</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -30793,7 +34223,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3849858097703471</v>
+        <v>2.8073705508640203</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -30802,7 +34232,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3963931493492518</v>
+        <v>1.2095009314094602</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -30811,7 +34241,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5071834186107784</v>
+        <v>1.9360934459011592</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -30820,7 +34250,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5929223410499693</v>
+        <v>2.2032952238444987</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -30829,7 +34259,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9281946035178237</v>
+        <v>1.5322283739469422E-2</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -30838,7 +34268,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2440590038136663</v>
+        <v>1.574240609857712</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -30847,7 +34277,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0589905867599776</v>
+        <v>1.6324069114546378</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -30856,7 +34286,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.93486476991851</v>
+        <v>2.741628692814154</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -30865,7 +34295,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6274656913171035</v>
+        <v>1.186476478896453</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -30874,7 +34304,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3365416967764578</v>
+        <v>2.4146016797054828</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -30883,7 +34313,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3675563570112663</v>
+        <v>0.35878381789075975</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -30892,7 +34322,7 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3059341237087674</v>
+        <v>1.9464791998589028</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -30901,7 +34331,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ref="C39:C70" ca="1" si="1">$C$2*B39+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.9780177310684457</v>
+        <v>1.0448360263715322</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -30910,7 +34340,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7568911152041746</v>
+        <v>2.4739556113311787</v>
       </c>
     </row>
     <row r="41" spans="2:3">
@@ -30919,7 +34349,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.574999864529961</v>
+        <v>1.9207373029870942</v>
       </c>
     </row>
     <row r="42" spans="2:3">
@@ -30928,7 +34358,7 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4549422676790589</v>
+        <v>1.1980471999685576</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -30937,7 +34367,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2176396743841074</v>
+        <v>0.33263665597661252</v>
       </c>
     </row>
     <row r="44" spans="2:3">
@@ -30946,7 +34376,7 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9143535800073632</v>
+        <v>2.999391544066353</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -30955,7 +34385,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.944955108082282</v>
+        <v>1.4833450208258303</v>
       </c>
     </row>
     <row r="46" spans="2:3">
@@ -30964,7 +34394,7 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9994081348178598</v>
+        <v>1.3739141130539392</v>
       </c>
     </row>
     <row r="47" spans="2:3">
@@ -30973,7 +34403,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2350484283745953</v>
+        <v>3.0712064375359542</v>
       </c>
     </row>
     <row r="48" spans="2:3">
@@ -30982,7 +34412,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.199569319045104</v>
+        <v>0.83488284617110131</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -30991,7 +34421,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3568904041731145</v>
+        <v>2.8237349221886872</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -31000,7 +34430,7 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8583029111785221</v>
+        <v>1.3126158321973551</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -31009,7 +34439,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6723054753488595</v>
+        <v>1.1140470676518175</v>
       </c>
     </row>
     <row r="52" spans="2:3">
@@ -31018,7 +34448,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0365593757108478</v>
+        <v>2.6141877385338761</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -31027,7 +34457,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4659395127891317</v>
+        <v>1.3101344216971875</v>
       </c>
     </row>
     <row r="54" spans="2:3">
@@ -31036,7 +34466,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3337873958886348</v>
+        <v>2.1664617112200864</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -31045,7 +34475,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6760056493564539</v>
+        <v>2.1078429572912007</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -31054,7 +34484,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5186949803790624</v>
+        <v>2.3942438592611275</v>
       </c>
     </row>
     <row r="57" spans="2:3">
@@ -31063,7 +34493,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1609660701205282</v>
+        <v>2.6309071324289848</v>
       </c>
     </row>
     <row r="58" spans="2:3">
@@ -31072,7 +34502,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5556196803345737</v>
+        <v>0.67428648926913082</v>
       </c>
     </row>
     <row r="59" spans="2:3">
@@ -31081,7 +34511,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9089619562854785</v>
+        <v>2.3536275534250555</v>
       </c>
     </row>
     <row r="60" spans="2:3">
@@ -31090,7 +34520,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7678810073494642</v>
+        <v>2.5578783195308286</v>
       </c>
     </row>
     <row r="61" spans="2:3">
@@ -31099,7 +34529,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0376619150557969</v>
+        <v>0.60795730856607777</v>
       </c>
     </row>
     <row r="62" spans="2:3">
@@ -31108,7 +34538,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8450845287731914</v>
+        <v>0.65121926022304355</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -31117,7 +34547,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0643690278876319</v>
+        <v>1.3934547842270302</v>
       </c>
     </row>
     <row r="64" spans="2:3">
@@ -31126,7 +34556,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5711298082411096</v>
+        <v>1.0532826534420454</v>
       </c>
     </row>
     <row r="65" spans="2:3">
@@ -31135,7 +34565,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7373762427002193</v>
+        <v>2.2731155179108899</v>
       </c>
     </row>
     <row r="66" spans="2:3">
@@ -31144,7 +34574,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9697919812250104</v>
+        <v>2.0177312976718813</v>
       </c>
     </row>
     <row r="67" spans="2:3">
@@ -31153,7 +34583,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3842735068159828</v>
+        <v>1.7409612994893</v>
       </c>
     </row>
     <row r="68" spans="2:3">
@@ -31162,7 +34592,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4630017897230152</v>
+        <v>2.0321540425146938</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -31171,7 +34601,7 @@
       </c>
       <c r="C69" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0843256662644527</v>
+        <v>1.3159937349639574</v>
       </c>
     </row>
     <row r="70" spans="2:3">
@@ -31180,7 +34610,7 @@
       </c>
       <c r="C70" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9357020629991788</v>
+        <v>2.3382280379543294</v>
       </c>
     </row>
     <row r="71" spans="2:3">
@@ -31189,7 +34619,7 @@
       </c>
       <c r="C71" s="3">
         <f t="shared" ref="C71:C102" ca="1" si="2">$C$2*B71+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.816576469786936</v>
+        <v>0.74454824382369533</v>
       </c>
     </row>
     <row r="72" spans="2:3">
@@ -31198,7 +34628,7 @@
       </c>
       <c r="C72" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1495894664162929</v>
+        <v>2.8239406217243923</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -31207,7 +34637,7 @@
       </c>
       <c r="C73" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3555770332498627</v>
+        <v>0.86377766941653256</v>
       </c>
     </row>
     <row r="74" spans="2:3">
@@ -31216,7 +34646,7 @@
       </c>
       <c r="C74" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0417020148554208</v>
+        <v>0.84019166430818448</v>
       </c>
     </row>
     <row r="75" spans="2:3">
@@ -31225,7 +34655,7 @@
       </c>
       <c r="C75" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7906128355760309</v>
+        <v>2.3837912697212591</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -31234,7 +34664,7 @@
       </c>
       <c r="C76" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.701311791000971</v>
+        <v>1.4904600648488899</v>
       </c>
     </row>
     <row r="77" spans="2:3">
@@ -31243,7 +34673,7 @@
       </c>
       <c r="C77" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9785801930770619</v>
+        <v>2.5897154343485318</v>
       </c>
     </row>
     <row r="78" spans="2:3">
@@ -31252,7 +34682,7 @@
       </c>
       <c r="C78" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3389587469668935</v>
+        <v>1.7890420421495328</v>
       </c>
     </row>
     <row r="79" spans="2:3">
@@ -31261,7 +34691,7 @@
       </c>
       <c r="C79" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4709245565001225</v>
+        <v>0.99927484563454616</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -31270,7 +34700,7 @@
       </c>
       <c r="C80" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1203683938119946</v>
+        <v>2.0152852450971137</v>
       </c>
     </row>
     <row r="81" spans="2:3">
@@ -31279,7 +34709,7 @@
       </c>
       <c r="C81" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7558504471257343</v>
+        <v>2.4506755994423171</v>
       </c>
     </row>
     <row r="82" spans="2:3">
@@ -31288,7 +34718,7 @@
       </c>
       <c r="C82" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8334733976489672</v>
+        <v>0.3072708425422862</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -31297,7 +34727,7 @@
       </c>
       <c r="C83" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5558885543926007</v>
+        <v>1.8067833509574538</v>
       </c>
     </row>
     <row r="84" spans="2:3">
@@ -31306,7 +34736,7 @@
       </c>
       <c r="C84" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0738972555715023</v>
+        <v>2.8286560657321904</v>
       </c>
     </row>
     <row r="85" spans="2:3">
@@ -31315,7 +34745,7 @@
       </c>
       <c r="C85" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2187159817317172</v>
+        <v>0.72551274999711823</v>
       </c>
     </row>
     <row r="86" spans="2:3">
@@ -31324,7 +34754,7 @@
       </c>
       <c r="C86" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8024768107579519</v>
+        <v>0.80052882515397539</v>
       </c>
     </row>
     <row r="87" spans="2:3">
@@ -31333,7 +34763,7 @@
       </c>
       <c r="C87" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2369418479217806</v>
+        <v>2.2900353013590111</v>
       </c>
     </row>
     <row r="88" spans="2:3">
@@ -31342,7 +34772,7 @@
       </c>
       <c r="C88" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1748360615976829</v>
+        <v>0.8466264459949443</v>
       </c>
     </row>
     <row r="89" spans="2:3">
@@ -31351,7 +34781,7 @@
       </c>
       <c r="C89" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3310112688230502</v>
+        <v>2.206067724755167</v>
       </c>
     </row>
     <row r="90" spans="2:3">
@@ -31360,7 +34790,7 @@
       </c>
       <c r="C90" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3.702980823783756</v>
+        <v>1.719334553741003</v>
       </c>
     </row>
     <row r="91" spans="2:3">
@@ -31369,7 +34799,7 @@
       </c>
       <c r="C91" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2089726215871872</v>
+        <v>1.511683427046743</v>
       </c>
     </row>
     <row r="92" spans="2:3">
@@ -31378,7 +34808,7 @@
       </c>
       <c r="C92" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.742795921918634</v>
+        <v>0.86734966045753092</v>
       </c>
     </row>
     <row r="93" spans="2:3">
@@ -31387,7 +34817,7 @@
       </c>
       <c r="C93" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0371932610723045</v>
+        <v>1.0990050802552684</v>
       </c>
     </row>
     <row r="94" spans="2:3">
@@ -31396,7 +34826,7 @@
       </c>
       <c r="C94" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4762665406416984</v>
+        <v>0.43374630660937963</v>
       </c>
     </row>
     <row r="95" spans="2:3">
@@ -31405,7 +34835,7 @@
       </c>
       <c r="C95" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8970726836200043</v>
+        <v>0.78780589031201886</v>
       </c>
     </row>
     <row r="96" spans="2:3">
@@ -31414,7 +34844,7 @@
       </c>
       <c r="C96" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7962043022396905</v>
+        <v>0.64427532820736</v>
       </c>
     </row>
     <row r="97" spans="2:3">
@@ -31423,7 +34853,7 @@
       </c>
       <c r="C97" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2804187806988239</v>
+        <v>2.2116189934321193</v>
       </c>
     </row>
     <row r="98" spans="2:3">
@@ -31432,7 +34862,7 @@
       </c>
       <c r="C98" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7193093010875211</v>
+        <v>2.6571613524151276</v>
       </c>
     </row>
     <row r="99" spans="2:3">
@@ -31441,7 +34871,7 @@
       </c>
       <c r="C99" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8040007665895113</v>
+        <v>2.9329097254339844</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -31450,7 +34880,7 @@
       </c>
       <c r="C100" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0258685688349276</v>
+        <v>2.4874775779072964</v>
       </c>
     </row>
     <row r="101" spans="2:3">
@@ -31459,7 +34889,7 @@
       </c>
       <c r="C101" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7121649678001694</v>
+        <v>3.0679083215648761</v>
       </c>
     </row>
     <row r="102" spans="2:3">
@@ -31468,7 +34898,7 @@
       </c>
       <c r="C102" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4250178195836805</v>
+        <v>1.4718332075077538</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -31477,7 +34907,7 @@
       </c>
       <c r="C103" s="3">
         <f t="shared" ref="C103:C107" ca="1" si="3">$C$2*B103+$C$3+$C$4*(2*RAND()-1)</f>
-        <v>2.4891353916696941</v>
+        <v>0.86413341006062039</v>
       </c>
     </row>
     <row r="104" spans="2:3">
@@ -31486,7 +34916,7 @@
       </c>
       <c r="C104" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3467148217234914</v>
+        <v>1.0562539381710487</v>
       </c>
     </row>
     <row r="105" spans="2:3">
@@ -31495,7 +34925,7 @@
       </c>
       <c r="C105" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7964776317093307</v>
+        <v>0.62889176995934604</v>
       </c>
     </row>
     <row r="106" spans="2:3">
@@ -31504,7 +34934,7 @@
       </c>
       <c r="C106" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1883951077693222</v>
+        <v>1.5125328444649364</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -31513,7 +34943,3706 @@
       </c>
       <c r="C107" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3008262150147778</v>
+        <v>1.4864649099485319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD15EB49-274C-7B4F-957C-3B1FBEE329B0}">
+  <dimension ref="B1:R208"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <f ca="1">_xlfn.PERCENTILE.INC(D8:D208,1-$C$5)</f>
+        <v>0.48700758072554118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="7">
+        <f ca="1">2*(RAND()-1)</f>
+        <v>-0.82787629933413687</v>
+      </c>
+      <c r="C8" s="6">
+        <f ca="1">$C$2*B8+$C$3</f>
+        <v>-6.5575259866827385E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <f ca="1">1/(1+EXP(-(C8+$C$4*2*(RAND()-1))))</f>
+        <v>0.47568931546390003</v>
+      </c>
+      <c r="E8">
+        <f ca="1">IF(D8&gt;$E$3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="7">
+        <f t="shared" ref="B9:B72" ca="1" si="0">2*(RAND()-1)</f>
+        <v>-0.99035278181070474</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:C72" ca="1" si="1">$C$2*B9+$C$3</f>
+        <v>-9.8070556362140959E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:D72" ca="1" si="2">1/(1+EXP(-(C9+$C$4*2*(RAND()-1))))</f>
+        <v>0.47365529983591331</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E72" ca="1" si="3">IF(D9&gt;$E$3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.679567182322935</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.23591343646458704</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4401200220892198</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.2104843175105842</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.14209686350211684</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44339540457346788</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.582145263433729</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.21642905268674581</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.445898563095739</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.63168895803961345</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.6337791607922684E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46931343241317092</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.86438287665780589</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.2876575331561194E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45832781849846721</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6082888141091565</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.22165776282183133</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42485088269479199</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.4039592180188603E-2</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.1192081563962288E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50730503043334385</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f>1/(1+EXP(0.1))</f>
+        <v>0.47502081252105999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.7568266284001077</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.25136532568002157</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43071003515496575</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.377735972664081</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.17554719453281623</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44521590413310946</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.44793855742101685</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0412288515796633E-2</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50076196488862468</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5269083772373448</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.20538167544746896</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42733516790962667</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.50276847342088793</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.5369468417758305E-4</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4819264231464806</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6548229708355982</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.23096459416711965</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42041452565230442</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.4408804772707269</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.1881760954541454</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43006654187323889</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.82091821265294351</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.4183642530588697E-2</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47439507287070015</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3318424836232912</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.16636849672465823</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43694036231478772</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.7223526703038825</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.24447053406077654</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4200115564064974</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.25104745557415198</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.9790508885169608E-2</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50338809017669384</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6575803583288178</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.23151607166576357</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42500849798974444</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.41508527573151754</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6982944853696488E-2</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48885066926826798</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6402949223423637</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.22805898446847275</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42675987242821561</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8232952912048828</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.26465905824097657</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42151319358870964</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.404677601988487E-2</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1190644796023032E-2</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51099320002256177</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3793971247560373</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.17587942495120748</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43496666278414209</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.69612958469497199</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.922591693899441E-2</v>
+      </c>
+      <c r="D34" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48572480436677612</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8947338295886791</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.27894676591773582</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43006204680211135</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.46700711096793457</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.5985778064130834E-3</v>
+      </c>
+      <c r="D36" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49868150039341286</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.42629635631421503</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.4740728737156997E-2</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50017547680450691</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0107722023845156</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.10215444047690311</v>
+      </c>
+      <c r="D38" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45980148060743753</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.308514566733981</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.16170291334679623</v>
+      </c>
+      <c r="D39" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44099015159742916</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5586307176406513</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.21172614352813027</v>
+      </c>
+      <c r="D40" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43879895684802334</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.9216374001524013</v>
+      </c>
+      <c r="C41" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.28432748003048025</v>
+      </c>
+      <c r="D41" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42905631960995771</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.23297865273682627</v>
+      </c>
+      <c r="C42" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3404269452634746E-2</v>
+      </c>
+      <c r="D42" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50069881683855366</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.26266081146290632</v>
+      </c>
+      <c r="C43" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.746783770741874E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50379191723786765</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.79398315494205618</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5.879663098841123E-2</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47412256136290953</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.49402923604460547</v>
+      </c>
+      <c r="C45" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1941527910789007E-3</v>
+      </c>
+      <c r="D45" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47555714619495998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6018090195154333</v>
+      </c>
+      <c r="C46" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.22036180390308666</v>
+      </c>
+      <c r="D46" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42594927342882233</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.5742010726116433E-2</v>
+      </c>
+      <c r="C47" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0851597854776719E-2</v>
+      </c>
+      <c r="D47" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49524706954490433</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3849126596776675</v>
+      </c>
+      <c r="C48" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.17698253193553351</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44448146229499325</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.9379183100568109</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.28758366201136221</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41242677668935912</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.3415046906902222</v>
+      </c>
+      <c r="C50" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.16830093813804445</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44046192155244268</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.9679699533519499</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.29359399067039005</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41536845145742457</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.4410087439296904</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.18820174878593807</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4474757175159183</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.73899749345286181</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.7799498690572373E-2</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46747417323678869</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.50898672846928661</v>
+      </c>
+      <c r="C54" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.7973456938573246E-3</v>
+      </c>
+      <c r="D54" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48887428430921609</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.5117189905841355</v>
+      </c>
+      <c r="C55" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2.3437981168270977E-3</v>
+      </c>
+      <c r="D55" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47913021185605964</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.10309008790456065</v>
+      </c>
+      <c r="C56" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.9381982419087879E-2</v>
+      </c>
+      <c r="D56" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.49894690913282497</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.96978755053787369</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-9.3957510107574749E-2</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45403097028521366</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.2071773684608065</v>
+      </c>
+      <c r="C58" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.14143547369216131</v>
+      </c>
+      <c r="D58" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44415186326436745</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.67884173865728648</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-3.576834773145729E-2</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48006346996099508</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.85605955317396765</v>
+      </c>
+      <c r="C60" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7.121191063479354E-2</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47663267883883964</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.2922583503661753</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.15845167007323505</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44048360973901707</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.8304331121984132</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-6.6086622439682635E-2</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47105536664937353</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.56557806460986404</v>
+      </c>
+      <c r="C63" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.3115612921972802E-2</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47630471526013729</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.48868148415434987</v>
+      </c>
+      <c r="C64" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2637031691300213E-3</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.48521156855334774</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.27870946149469655</v>
+      </c>
+      <c r="C65" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.4258107701060694E-2</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4907735020987567</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0362570515716873</v>
+      </c>
+      <c r="C66" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.10725141031433746</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45702192089477089</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.55084167066082812</v>
+      </c>
+      <c r="C67" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-1.0168334132165627E-2</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47650559613078092</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.8891629445884028</v>
+      </c>
+      <c r="C68" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.27783258891768059</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.41531711682162786</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5848406730606699</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.21696813461213402</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43488658708317068</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.145462062392584</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.1290924124785168</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.45295479009345219</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.6060169917589415</v>
+      </c>
+      <c r="C71" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.22120339835178834</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42383996047419475</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.5699843463151559</v>
+      </c>
+      <c r="C72" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.21399686926303121</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4352263696575267</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="7">
+        <f t="shared" ref="B73:B136" ca="1" si="4">2*(RAND()-1)</f>
+        <v>-0.87584746274219527</v>
+      </c>
+      <c r="C73" s="6">
+        <f t="shared" ref="C73:C136" ca="1" si="5">$C$2*B73+$C$3</f>
+        <v>-7.5169492548439049E-2</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" ref="D73:D136" ca="1" si="6">1/(1+EXP(-(C73+$C$4*2*(RAND()-1))))</f>
+        <v>0.48011897162300804</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:E136" ca="1" si="7">IF(D73&gt;$E$3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.571803645253617</v>
+      </c>
+      <c r="C74" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.21436072905072343</v>
+      </c>
+      <c r="D74" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42703353266701122</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.3350247460565643</v>
+      </c>
+      <c r="C75" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.16700494921131284</v>
+      </c>
+      <c r="D75" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45289136876328651</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4664602841066281</v>
+      </c>
+      <c r="C76" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.19329205682132564</v>
+      </c>
+      <c r="D76" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44734123589342017</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.70819153019265957</v>
+      </c>
+      <c r="C77" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.1638306038531914E-2</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4691265253117764</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.57472909326214761</v>
+      </c>
+      <c r="C78" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.4945818652429527E-2</v>
+      </c>
+      <c r="D78" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48235593528214238</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0953286632848451</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.11906573265696904</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4613184350879061</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4136318968353834</v>
+      </c>
+      <c r="C80" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.18272637936707667</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44701582560844089</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-3.2722808802224668E-2</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.3455438239555072E-2</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.50615628891219988</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.75062501841497009</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.0125003682994024E-2</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.46889214663669149</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.32907245818736386</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.4185508362527234E-2</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49441828602320448</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.34168410656226111</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.1663178687547783E-2</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49794781143060152</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.993363767365101</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.29867275347302025</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4160976311002611</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.7931315259438696E-2</v>
+      </c>
+      <c r="C86" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>9.6413736948112269E-2</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.50825682437318465</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.60759250774728879</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.1518501549457753E-2</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48414495898020687</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.81842778390004245</v>
+      </c>
+      <c r="C88" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.3685556780008507E-2</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.46155460481884525</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.47876048209625521</v>
+      </c>
+      <c r="C89" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2479035807489601E-3</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49284415226526435</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.64953996859334406</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.9907993718668813E-2</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47116393532905371</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4638924778870668</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.19277849557741336</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4351526580460186</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.10020021729357564</v>
+      </c>
+      <c r="C92" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9959956541284877E-2</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.51578187901725336</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.76675280081579977</v>
+      </c>
+      <c r="C93" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.3350560163159949E-2</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47805453524782976</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4706737806142514</v>
+      </c>
+      <c r="C94" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.19413475612285028</v>
+      </c>
+      <c r="D94" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43015565189760457</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.27098877322547565</v>
+      </c>
+      <c r="C95" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5802245354904875E-2</v>
+      </c>
+      <c r="D95" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49087564920322174</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.13044637806953707</v>
+      </c>
+      <c r="C96" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.3910724386092586E-2</v>
+      </c>
+      <c r="D96" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.51291324029749186</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2173709459725415</v>
+      </c>
+      <c r="C97" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.1434741891945083</v>
+      </c>
+      <c r="D97" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.46321530219046203</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.59736214285337663</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.9472428570675326E-2</v>
+      </c>
+      <c r="D98" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47379646970567696</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.9821537188921674</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.6430743778433498E-2</v>
+      </c>
+      <c r="D99" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.46137468395650388</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.78438251268255343</v>
+      </c>
+      <c r="C100" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.6876502536510692E-2</v>
+      </c>
+      <c r="D100" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48119862319444862</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.7869734083051132</v>
+      </c>
+      <c r="C101" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.25739468166102264</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42088388105860108</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0890557965972969</v>
+      </c>
+      <c r="C102" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.11781115931945937</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45168788863313197</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.10457168756833557</v>
+      </c>
+      <c r="C103" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9085662486332892E-2</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.51774022181415447</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.1814864167306331</v>
+      </c>
+      <c r="C104" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.13629728334612665</v>
+      </c>
+      <c r="D104" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45340747042254753</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.3910708151476714</v>
+      </c>
+      <c r="C105" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.17821416302953427</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44515204695526883</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.4283369317562391</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.4332613648752185E-2</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49937347814602845</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.69098272075688283</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.8196544151376577E-2</v>
+      </c>
+      <c r="D107" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48379114296573267</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.10930672054127055</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.8138655891745901E-2</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49788370574676016</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0357524608324018</v>
+      </c>
+      <c r="C109" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.10715049216648037</v>
+      </c>
+      <c r="D109" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.46207738038233548</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.69286584258356365</v>
+      </c>
+      <c r="C110" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.8573168516712719E-2</v>
+      </c>
+      <c r="D110" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48643933796194005</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.3480518209108028</v>
+      </c>
+      <c r="C111" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.16961036418216055</v>
+      </c>
+      <c r="D111" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45506039387488911</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.9064138329415594</v>
+      </c>
+      <c r="C112" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.28128276658831186</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42637602664628071</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.55941673484177512</v>
+      </c>
+      <c r="C113" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.1883346968355024E-2</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49176009460485404</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.43369268260695271</v>
+      </c>
+      <c r="C114" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3261463478609459E-2</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49865123087172442</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.2514071814298919</v>
+      </c>
+      <c r="C115" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.15028143628597837</v>
+      </c>
+      <c r="D115" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44163157232900052</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.6792285097735311</v>
+      </c>
+      <c r="C116" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.23584570195470625</v>
+      </c>
+      <c r="D116" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.426911644050119</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.0366292682845386</v>
+      </c>
+      <c r="C117" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.10732585365690772</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45503243721397924</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.33117263428421184</v>
+      </c>
+      <c r="C118" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3765473143157629E-2</v>
+      </c>
+      <c r="D118" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48458112057422231</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.43491408172923007</v>
+      </c>
+      <c r="C119" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.3017183654153983E-2</v>
+      </c>
+      <c r="D119" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49346268655070991</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4788158949093486</v>
+      </c>
+      <c r="C120" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.19576317898186971</v>
+      </c>
+      <c r="D120" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43549665040053537</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.33633412917958427</v>
+      </c>
+      <c r="C121" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2733174164083154E-2</v>
+      </c>
+      <c r="D121" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.50187364117508548</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.94423298964485158</v>
+      </c>
+      <c r="C122" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.8846597928970317E-2</v>
+      </c>
+      <c r="D122" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4738605465428134</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.81248594835462717</v>
+      </c>
+      <c r="C123" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.2497189670925435E-2</v>
+      </c>
+      <c r="D123" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47762990140499151</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.7549274546637863</v>
+      </c>
+      <c r="C124" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.25098549093275724</v>
+      </c>
+      <c r="D124" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42336963486484769</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-9.2132137177207696E-2</v>
+      </c>
+      <c r="C125" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.1573572564558466E-2</v>
+      </c>
+      <c r="D125" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.5117623180541726</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.9237476753797216</v>
+      </c>
+      <c r="C126" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.28474953507594436</v>
+      </c>
+      <c r="D126" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.40829640611592738</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.26143475087846091</v>
+      </c>
+      <c r="C127" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.7713049824307824E-2</v>
+      </c>
+      <c r="D127" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.49626625705769739</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.50146396203521748</v>
+      </c>
+      <c r="C128" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.9279240704349618E-4</v>
+      </c>
+      <c r="D128" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.48448272268804204</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4677268468242342</v>
+      </c>
+      <c r="C129" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.19354536936484681</v>
+      </c>
+      <c r="D129" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43744456547790711</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.7143735121911594</v>
+      </c>
+      <c r="C130" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.24287470243823192</v>
+      </c>
+      <c r="D130" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42305318884344179</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.81068682524479319</v>
+      </c>
+      <c r="C131" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.2137365048958643E-2</v>
+      </c>
+      <c r="D131" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.47428820340263089</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.38058594800263634</v>
+      </c>
+      <c r="C132" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3882810399472737E-2</v>
+      </c>
+      <c r="D132" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.50548977695433073</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4119249864193568</v>
+      </c>
+      <c r="C133" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.18238499728387139</v>
+      </c>
+      <c r="D133" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45025576073489776</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.1414528698716124</v>
+      </c>
+      <c r="C134" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.1282905739743225</v>
+      </c>
+      <c r="D134" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.45566168804537754</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.5656772470244926</v>
+      </c>
+      <c r="C135" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.21313544940489856</v>
+      </c>
+      <c r="D135" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.4411094707020396</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.632934005560178</v>
+      </c>
+      <c r="C136" s="6">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.22658680111203564</v>
+      </c>
+      <c r="D136" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.43627623037785962</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="7">
+        <f t="shared" ref="B137:B200" ca="1" si="8">2*(RAND()-1)</f>
+        <v>-0.47799125902632666</v>
+      </c>
+      <c r="C137" s="6">
+        <f t="shared" ref="C137:C200" ca="1" si="9">$C$2*B137+$C$3</f>
+        <v>4.4017481947346698E-3</v>
+      </c>
+      <c r="D137" s="6">
+        <f t="shared" ref="D137:D200" ca="1" si="10">1/(1+EXP(-(C137+$C$4*2*(RAND()-1))))</f>
+        <v>0.49573367728872281</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ref="E137:E200" ca="1" si="11">IF(D137&gt;$E$3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.65984573679259695</v>
+      </c>
+      <c r="C138" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.1969147358519384E-2</v>
+      </c>
+      <c r="D138" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46837284704448046</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.85142528796354933</v>
+      </c>
+      <c r="C139" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-7.0285057592709865E-2</v>
+      </c>
+      <c r="D139" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48190592290094514</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.74015607868458289</v>
+      </c>
+      <c r="C140" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.8031215736916572E-2</v>
+      </c>
+      <c r="D140" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.4787439586172722</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.5075889079660822</v>
+      </c>
+      <c r="C141" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.20151778159321646</v>
+      </c>
+      <c r="D141" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44202289898369862</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.0316584436720817</v>
+      </c>
+      <c r="C142" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.10633168873441634</v>
+      </c>
+      <c r="D142" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46358697972920515</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.41683608998589117</v>
+      </c>
+      <c r="C143" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.6632782002821769E-2</v>
+      </c>
+      <c r="D143" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.49829434525829502</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.85593074647052836</v>
+      </c>
+      <c r="C144" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-7.1186149294105688E-2</v>
+      </c>
+      <c r="D144" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47001475978783391</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.14544637265633287</v>
+      </c>
+      <c r="C145" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.0910725468733435E-2</v>
+      </c>
+      <c r="D145" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.51484333128051063</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.3759211302746648</v>
+      </c>
+      <c r="C146" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.17518422605493297</v>
+      </c>
+      <c r="D146" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44750337867014067</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.46479476884617621</v>
+      </c>
+      <c r="C147" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.0410462307647637E-3</v>
+      </c>
+      <c r="D147" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.49614362059396394</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.81682056527028335</v>
+      </c>
+      <c r="C148" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.3364113054056675E-2</v>
+      </c>
+      <c r="D148" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46556070635740932</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.97445181740375153</v>
+      </c>
+      <c r="C149" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.4890363480750306E-2</v>
+      </c>
+      <c r="D149" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45958662777061254</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.313212306461544</v>
+      </c>
+      <c r="C150" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.16264246129230878</v>
+      </c>
+      <c r="D150" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45412555864912374</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.1340256934640671</v>
+      </c>
+      <c r="C151" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.12680513869281343</v>
+      </c>
+      <c r="D151" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45879601401533854</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.0193200829716464</v>
+      </c>
+      <c r="C152" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.10386401659432928</v>
+      </c>
+      <c r="D152" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45785518411926929</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.69072641613322294</v>
+      </c>
+      <c r="C153" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.8145283226644594E-2</v>
+      </c>
+      <c r="D153" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47623706352898731</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.25982563350655763</v>
+      </c>
+      <c r="C154" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.8034873298688475E-2</v>
+      </c>
+      <c r="D154" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.49701291458546354</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.92838263358675999</v>
+      </c>
+      <c r="C155" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.5676526717352014E-2</v>
+      </c>
+      <c r="D155" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45679628981170828</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.2789614947389349</v>
+      </c>
+      <c r="C156" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.15579229894778698</v>
+      </c>
+      <c r="D156" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.43919113023279288</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.61252551206966399</v>
+      </c>
+      <c r="C157" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.2505102413932804E-2</v>
+      </c>
+      <c r="D157" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47944729689808258</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-7.6580803913684159E-2</v>
+      </c>
+      <c r="C158" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.4683839217263177E-2</v>
+      </c>
+      <c r="D158" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50886042648943375</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.72664704348573572</v>
+      </c>
+      <c r="C159" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.5329408697147133E-2</v>
+      </c>
+      <c r="D159" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47648512688261385</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.7107294900203136</v>
+      </c>
+      <c r="C160" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.24214589800406275</v>
+      </c>
+      <c r="D160" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42632677444168549</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.7021572036990584</v>
+      </c>
+      <c r="C161" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.24043144073981168</v>
+      </c>
+      <c r="D161" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42194593851023338</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.611225338869116</v>
+      </c>
+      <c r="C162" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.22224506777382322</v>
+      </c>
+      <c r="D162" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.43574088073520839</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.88168680811235278</v>
+      </c>
+      <c r="C163" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-7.6337361622470568E-2</v>
+      </c>
+      <c r="D163" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47996665564075186</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.4418092278095167</v>
+      </c>
+      <c r="C164" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.18836184556190336</v>
+      </c>
+      <c r="D164" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42908983009080676</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.2905994669519625</v>
+      </c>
+      <c r="C165" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.15811989339039248</v>
+      </c>
+      <c r="D165" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44694082287129927</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-6.7023688170306794E-3</v>
+      </c>
+      <c r="C166" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.8659526236593867E-2</v>
+      </c>
+      <c r="D166" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50053963687673786</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.50667473246720252</v>
+      </c>
+      <c r="C167" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.3349464934405003E-3</v>
+      </c>
+      <c r="D167" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.49707212111440902</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.8724776225739928</v>
+      </c>
+      <c r="C168" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.27449552451479853</v>
+      </c>
+      <c r="D168" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42327404662470924</v>
+      </c>
+      <c r="E168">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.4133795216633853</v>
+      </c>
+      <c r="C169" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.18267590433267708</v>
+      </c>
+      <c r="D169" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45253055280700638</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.6979803552702768</v>
+      </c>
+      <c r="C170" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.9596071054055354E-2</v>
+      </c>
+      <c r="D170" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.4814589391618761</v>
+      </c>
+      <c r="E170">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.2597578451979352</v>
+      </c>
+      <c r="C171" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.15195156903958704</v>
+      </c>
+      <c r="D171" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45269153641500032</v>
+      </c>
+      <c r="E171">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.1852762702663884</v>
+      </c>
+      <c r="C172" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.13705525405327768</v>
+      </c>
+      <c r="D172" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44365217148278679</v>
+      </c>
+      <c r="E172">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.9040260188551008</v>
+      </c>
+      <c r="C173" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.28080520377102014</v>
+      </c>
+      <c r="D173" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.40779440026530678</v>
+      </c>
+      <c r="E173">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.43255463486534196</v>
+      </c>
+      <c r="C174" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3489073026931614E-2</v>
+      </c>
+      <c r="D174" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48700758072554118</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.29237385821038719</v>
+      </c>
+      <c r="C175" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.1525228357922564E-2</v>
+      </c>
+      <c r="D175" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.49739833883377976</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.0885940855819907</v>
+      </c>
+      <c r="C176" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.11771881711639814</v>
+      </c>
+      <c r="D176" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44700116716357013</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.0445795358354142</v>
+      </c>
+      <c r="C177" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.10891590716708285</v>
+      </c>
+      <c r="D177" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.46515471496414945</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.8057439189591007</v>
+      </c>
+      <c r="C178" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.26114878379182016</v>
+      </c>
+      <c r="D178" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42156590229600793</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6830676307435988</v>
+      </c>
+      <c r="C179" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.23661352614871975</v>
+      </c>
+      <c r="D179" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.43593361636852479</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.24989761712261926</v>
+      </c>
+      <c r="C180" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0020476575476147E-2</v>
+      </c>
+      <c r="D180" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50891074116955237</v>
+      </c>
+      <c r="E180">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.42781874609502846</v>
+      </c>
+      <c r="C181" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4436250780994309E-2</v>
+      </c>
+      <c r="D181" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50255687223375312</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.72784768888026008</v>
+      </c>
+      <c r="C182" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.5569537776052021E-2</v>
+      </c>
+      <c r="D182" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.4763049591639098</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6873455785371427</v>
+      </c>
+      <c r="C183" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.23746911570742854</v>
+      </c>
+      <c r="D183" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42586440232162326</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.9533174471231896</v>
+      </c>
+      <c r="C184" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.29066348942463793</v>
+      </c>
+      <c r="D184" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42473556973422316</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.66127201980890216</v>
+      </c>
+      <c r="C185" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.225440396178042E-2</v>
+      </c>
+      <c r="D185" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48403645169377202</v>
+      </c>
+      <c r="E185">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.583222488519225</v>
+      </c>
+      <c r="C186" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.216644497703845</v>
+      </c>
+      <c r="D186" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.43390452380738131</v>
+      </c>
+      <c r="E186">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.8819874715420046</v>
+      </c>
+      <c r="C187" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.27639749430840099</v>
+      </c>
+      <c r="D187" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42393600261963377</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.0393213662350209</v>
+      </c>
+      <c r="C188" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.10786427324700418</v>
+      </c>
+      <c r="D188" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44947582973522604</v>
+      </c>
+      <c r="E188">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.27077825530649258</v>
+      </c>
+      <c r="C189" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.5844348938701485E-2</v>
+      </c>
+      <c r="D189" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.4919229498896503</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.41125409454307049</v>
+      </c>
+      <c r="C190" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7749181091385902E-2</v>
+      </c>
+      <c r="D190" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48585178628460651</v>
+      </c>
+      <c r="E190">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.17103569440469935</v>
+      </c>
+      <c r="C191" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.5792861119060131E-2</v>
+      </c>
+      <c r="D191" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50048879890057518</v>
+      </c>
+      <c r="E191">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.55515398093616963</v>
+      </c>
+      <c r="C192" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.1030796187233932E-2</v>
+      </c>
+      <c r="D192" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48917622589955517</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.6659241971870766</v>
+      </c>
+      <c r="C193" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.23318483943741533</v>
+      </c>
+      <c r="D193" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.43027629611005125</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.8026041826487951</v>
+      </c>
+      <c r="C194" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.26052083652975899</v>
+      </c>
+      <c r="D194" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.42248590898750771</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.90631237426916789</v>
+      </c>
+      <c r="C195" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-8.1262474853833588E-2</v>
+      </c>
+      <c r="D195" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.47187415684374162</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.4852446687497316</v>
+      </c>
+      <c r="C196" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.9510662500536744E-3</v>
+      </c>
+      <c r="D196" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.48203641351927895</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1.480480600930093</v>
+      </c>
+      <c r="C197" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.1960961201860186</v>
+      </c>
+      <c r="D197" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.44882393562706868</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.98388174634675329</v>
+      </c>
+      <c r="C198" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.6776349269350664E-2</v>
+      </c>
+      <c r="D198" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.45316478850945968</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-0.10893506214095128</v>
+      </c>
+      <c r="C199" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.821298757180975E-2</v>
+      </c>
+      <c r="D199" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50380251658659081</v>
+      </c>
+      <c r="E199">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="7">
+        <f t="shared" ca="1" si="8"/>
+        <v>-7.3620358798250907E-2</v>
+      </c>
+      <c r="C200" s="6">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.5275928240349824E-2</v>
+      </c>
+      <c r="D200" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.50714044179871387</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="7">
+        <f t="shared" ref="B201:B208" ca="1" si="12">2*(RAND()-1)</f>
+        <v>-0.33177224287509643</v>
+      </c>
+      <c r="C201" s="6">
+        <f t="shared" ref="C201:C208" ca="1" si="13">$C$2*B201+$C$3</f>
+        <v>3.3645551424980713E-2</v>
+      </c>
+      <c r="D201" s="6">
+        <f t="shared" ref="D201:D208" ca="1" si="14">1/(1+EXP(-(C201+$C$4*2*(RAND()-1))))</f>
+        <v>0.49272503653620547</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ref="E201:E208" ca="1" si="15">IF(D201&gt;$E$3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.87839007526475044</v>
+      </c>
+      <c r="C202" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>-7.5678015052950104E-2</v>
+      </c>
+      <c r="D202" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.48101714699850795</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.3255595419574131</v>
+      </c>
+      <c r="C203" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.4888091608517385E-2</v>
+      </c>
+      <c r="D203" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.49102554760460138</v>
+      </c>
+      <c r="E203">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.99687316320845465</v>
+      </c>
+      <c r="C204" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>-9.9374632641690941E-2</v>
+      </c>
+      <c r="D204" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.47488150988748473</v>
+      </c>
+      <c r="E204">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.96836388688362973</v>
+      </c>
+      <c r="C205" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>-9.3672777376725941E-2</v>
+      </c>
+      <c r="D205" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.45860046487354689</v>
+      </c>
+      <c r="E205">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-1.3988439187854536</v>
+      </c>
+      <c r="C206" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.17976878375709074</v>
+      </c>
+      <c r="D206" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.45389348367871851</v>
+      </c>
+      <c r="E206">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.30367690319811058</v>
+      </c>
+      <c r="C207" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.9264619360377888E-2</v>
+      </c>
+      <c r="D207" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.49560728442163571</v>
+      </c>
+      <c r="E207">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="7">
+        <f t="shared" ca="1" si="12"/>
+        <v>-1.6208931421396875</v>
+      </c>
+      <c r="C208" s="6">
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.22417862842793754</v>
+      </c>
+      <c r="D208" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>0.43041321385777603</v>
+      </c>
+      <c r="E208">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
